--- a/capiq_data/in_process_data/IQ277617.xlsx
+++ b/capiq_data/in_process_data/IQ277617.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBFC34-0622-47E7-B9D5-E4EE16B43B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D67C1-44DD-4D8E-8F37-72DE59E70253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"de0de57f-392e-4d78-8e67-797700741932"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8f3d4758-c2a5-438a-88de-2d2a20e6e957"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>36.045000000000002</v>
+        <v>12.88</v>
       </c>
       <c r="D2">
-        <v>242.63499999999999</v>
+        <v>90.412000000000006</v>
       </c>
       <c r="E2">
-        <v>126.827</v>
+        <v>59.734000000000002</v>
       </c>
       <c r="F2">
-        <v>102.819</v>
+        <v>34.767000000000003</v>
       </c>
       <c r="G2">
-        <v>239.06299999999999</v>
+        <v>99.656999999999996</v>
       </c>
       <c r="H2">
-        <v>1397.646</v>
+        <v>339.10500000000002</v>
       </c>
       <c r="I2">
-        <v>8.0259999999999998</v>
+        <v>7.3029999999999999</v>
       </c>
       <c r="J2">
-        <v>229.43899999999999</v>
+        <v>0.24</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>249.25800000000001</v>
+        <v>73.164000000000001</v>
       </c>
       <c r="O2">
-        <v>578.49900000000002</v>
+        <v>93.32</v>
       </c>
       <c r="P2">
-        <v>244.93199999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.105</v>
+        <v>-4.6219999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>819.14700000000005</v>
+        <v>245.785</v>
       </c>
       <c r="U2">
-        <v>46.871000000000002</v>
+        <v>15.832000000000001</v>
       </c>
       <c r="V2">
-        <v>10.465999999999999</v>
+        <v>6.6109999999999998</v>
       </c>
       <c r="W2">
-        <v>-8.1449999999999996</v>
+        <v>-2.16</v>
       </c>
       <c r="X2">
-        <v>1.0429999999999999</v>
+        <v>7.0549999999999997</v>
       </c>
       <c r="Y2">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>36.045000000000002</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>33.081000000000003</v>
+        <v>15.337999999999999</v>
       </c>
       <c r="D3">
-        <v>240.185</v>
+        <v>98.203000000000003</v>
       </c>
       <c r="E3">
-        <v>115.529</v>
+        <v>62.347000000000001</v>
       </c>
       <c r="F3">
-        <v>95.29</v>
+        <v>39.682000000000002</v>
       </c>
       <c r="G3">
-        <v>231.75399999999999</v>
+        <v>114.444</v>
       </c>
       <c r="H3">
-        <v>1384.7860000000001</v>
+        <v>364.00200000000001</v>
       </c>
       <c r="I3">
-        <v>8.7539999999999996</v>
+        <v>9.4740000000000002</v>
       </c>
       <c r="J3">
-        <v>223.7</v>
+        <v>0.251</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>207.15199999999999</v>
+        <v>78.718000000000004</v>
       </c>
       <c r="O3">
-        <v>535.26400000000001</v>
+        <v>102.90300000000001</v>
       </c>
       <c r="P3">
-        <v>244.68899999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="Q3">
-        <v>7.5119999999999996</v>
+        <v>9.3130000000000006</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>849.52200000000005</v>
+        <v>261.09899999999999</v>
       </c>
       <c r="U3">
-        <v>54.383000000000003</v>
+        <v>25.145</v>
       </c>
       <c r="V3">
-        <v>29.329000000000001</v>
+        <v>23.510999999999999</v>
       </c>
       <c r="W3">
-        <v>-9.0579999999999998</v>
+        <v>-2.6459999999999999</v>
       </c>
       <c r="X3">
-        <v>-5.9080000000000004</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="Y3">
-        <v>0.88700000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>33.081000000000003</v>
+        <v>15.337999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>36.573999999999998</v>
+        <v>15.529</v>
       </c>
       <c r="D4">
-        <v>249.255</v>
+        <v>101.28</v>
       </c>
       <c r="E4">
-        <v>207.51</v>
+        <v>116.57299999999999</v>
       </c>
       <c r="F4">
-        <v>104.19199999999999</v>
+        <v>42.515999999999998</v>
       </c>
       <c r="G4">
-        <v>353.95</v>
+        <v>172.05</v>
       </c>
       <c r="H4">
-        <v>1505.797</v>
+        <v>433.12099999999998</v>
       </c>
       <c r="I4">
-        <v>12.829000000000001</v>
+        <v>17.846</v>
       </c>
       <c r="J4">
-        <v>127.93899999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>380.51100000000002</v>
+        <v>107.018</v>
       </c>
       <c r="O4">
-        <v>626.02099999999996</v>
+        <v>130.61699999999999</v>
       </c>
       <c r="P4">
-        <v>154.03100000000001</v>
+        <v>0.315</v>
       </c>
       <c r="Q4">
-        <v>8.7420000000000009</v>
+        <v>-6.556</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>4667</v>
+        <v>1910</v>
       </c>
       <c r="T4">
-        <v>879.77599999999995</v>
+        <v>302.50400000000002</v>
       </c>
       <c r="U4">
-        <v>63.125</v>
+        <v>18.588999999999999</v>
       </c>
       <c r="V4">
-        <v>124.974</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="W4">
-        <v>-9.0670000000000002</v>
+        <v>-2.6520000000000001</v>
       </c>
       <c r="X4">
-        <v>-100.688</v>
+        <v>3.5720000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AA4">
-        <v>36.573999999999998</v>
+        <v>15.529</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>36.475000000000001</v>
+        <v>14.616</v>
       </c>
       <c r="D5">
-        <v>248.33799999999999</v>
+        <v>92.566999999999993</v>
       </c>
       <c r="E5">
-        <v>134.648</v>
+        <v>78.06</v>
       </c>
       <c r="F5">
-        <v>104.426</v>
+        <v>39.048999999999999</v>
       </c>
       <c r="G5">
-        <v>322.97399999999999</v>
+        <v>157.435</v>
       </c>
       <c r="H5">
-        <v>1481.778</v>
+        <v>423.23500000000001</v>
       </c>
       <c r="I5">
-        <v>10.316000000000001</v>
+        <v>12.510999999999999</v>
       </c>
       <c r="J5">
-        <v>122.176</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-6.34</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="N5">
-        <v>327.79899999999998</v>
+        <v>88.435000000000002</v>
       </c>
       <c r="O5">
-        <v>572.61500000000001</v>
+        <v>112.789</v>
       </c>
       <c r="P5">
-        <v>157.309</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="Q5">
-        <v>44.93</v>
+        <v>26.419</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>909.16300000000001</v>
+        <v>310.44600000000003</v>
       </c>
       <c r="U5">
-        <v>108.05500000000001</v>
+        <v>45.008000000000003</v>
       </c>
       <c r="V5">
-        <v>78.462999999999994</v>
+        <v>41.38</v>
       </c>
       <c r="W5">
-        <v>-9.0739999999999998</v>
+        <v>-2.6720000000000002</v>
       </c>
       <c r="X5">
-        <v>-14.695</v>
+        <v>-3.387</v>
       </c>
       <c r="Y5">
-        <v>1.972</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>36.475000000000001</v>
+        <v>14.616</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>38.524000000000001</v>
+        <v>13.034000000000001</v>
       </c>
       <c r="D6">
-        <v>255.858</v>
+        <v>98.227000000000004</v>
       </c>
       <c r="E6">
-        <v>126.6</v>
+        <v>91.337999999999994</v>
       </c>
       <c r="F6">
-        <v>107.40900000000001</v>
+        <v>39.011000000000003</v>
       </c>
       <c r="G6">
-        <v>308.77300000000002</v>
+        <v>159.31299999999999</v>
       </c>
       <c r="H6">
-        <v>1463.6020000000001</v>
+        <v>442.51100000000002</v>
       </c>
       <c r="I6">
-        <v>7.5270000000000001</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="J6">
-        <v>113.5</v>
+        <v>0.184</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>277.36099999999999</v>
+        <v>86.736999999999995</v>
       </c>
       <c r="O6">
-        <v>519.15499999999997</v>
+        <v>113.554</v>
       </c>
       <c r="P6">
-        <v>147.02099999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="Q6">
-        <v>-12.853</v>
+        <v>-8.1760000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>944.447</v>
+        <v>328.95699999999999</v>
       </c>
       <c r="U6">
-        <v>95.201999999999998</v>
+        <v>36.832000000000001</v>
       </c>
       <c r="V6">
-        <v>17.797999999999998</v>
+        <v>8.17</v>
       </c>
       <c r="W6">
-        <v>-9.093</v>
+        <v>-2.6669999999999998</v>
       </c>
       <c r="X6">
-        <v>-16.852</v>
+        <v>-1.484</v>
       </c>
       <c r="Y6">
-        <v>4.6070000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA6">
-        <v>38.524999999999999</v>
+        <v>13.034000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>36.658000000000001</v>
+        <v>13.558</v>
       </c>
       <c r="D7">
-        <v>256.30399999999997</v>
+        <v>99.784000000000006</v>
       </c>
       <c r="E7">
-        <v>118.371</v>
+        <v>76.947000000000003</v>
       </c>
       <c r="F7">
-        <v>103.383</v>
+        <v>40.091999999999999</v>
       </c>
       <c r="G7">
-        <v>292.96300000000002</v>
+        <v>157.58600000000001</v>
       </c>
       <c r="H7">
-        <v>1444.0350000000001</v>
+        <v>458.83699999999999</v>
       </c>
       <c r="I7">
-        <v>10.236000000000001</v>
+        <v>9.8859999999999992</v>
       </c>
       <c r="J7">
-        <v>110.697</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>221.70699999999999</v>
+        <v>77.825000000000003</v>
       </c>
       <c r="O7">
-        <v>465.24400000000003</v>
+        <v>109.67700000000001</v>
       </c>
       <c r="P7">
-        <v>141.05000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-5.431</v>
+        <v>10.976000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>978.79100000000005</v>
+        <v>349.16</v>
       </c>
       <c r="U7">
-        <v>89.771000000000001</v>
+        <v>47.808</v>
       </c>
       <c r="V7">
-        <v>21.756</v>
+        <v>33.058999999999997</v>
       </c>
       <c r="W7">
-        <v>-9.9969999999999999</v>
+        <v>-3.133</v>
       </c>
       <c r="X7">
-        <v>-10.465999999999999</v>
+        <v>1.157</v>
       </c>
       <c r="Y7">
-        <v>1.786</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA7">
-        <v>36.656999999999996</v>
+        <v>13.558</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>43.326999999999998</v>
+        <v>15.856999999999999</v>
       </c>
       <c r="D8">
-        <v>266.60899999999998</v>
+        <v>106.07899999999999</v>
       </c>
       <c r="E8">
-        <v>218.30500000000001</v>
+        <v>131.43100000000001</v>
       </c>
       <c r="F8">
-        <v>108.511</v>
+        <v>43.067999999999998</v>
       </c>
       <c r="G8">
-        <v>468.649</v>
+        <v>179.977</v>
       </c>
       <c r="H8">
-        <v>1619.492</v>
+        <v>486.142</v>
       </c>
       <c r="I8">
-        <v>16.317</v>
+        <v>9.0510000000000002</v>
       </c>
       <c r="J8">
-        <v>106.166</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>402.24299999999999</v>
+        <v>112.65600000000001</v>
       </c>
       <c r="O8">
-        <v>636.43600000000004</v>
+        <v>145.40299999999999</v>
       </c>
       <c r="P8">
-        <v>131.66900000000001</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>67.542000000000002</v>
+        <v>-30.042999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>4872</v>
+        <v>2093</v>
       </c>
       <c r="T8">
-        <v>983.05600000000004</v>
+        <v>340.73899999999998</v>
       </c>
       <c r="U8">
-        <v>157.31299999999999</v>
+        <v>17.765000000000001</v>
       </c>
       <c r="V8">
-        <v>146.53299999999999</v>
+        <v>7.3319999999999999</v>
       </c>
       <c r="W8">
-        <v>-9.9640000000000004</v>
+        <v>-3.1539999999999999</v>
       </c>
       <c r="X8">
-        <v>-52.087000000000003</v>
+        <v>-24.823</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA8">
-        <v>43.326999999999998</v>
+        <v>15.856999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.475000000000001</v>
+        <v>11.298</v>
       </c>
       <c r="D9">
-        <v>271.00099999999998</v>
+        <v>93.977999999999994</v>
       </c>
       <c r="E9">
-        <v>136.827</v>
+        <v>71.97</v>
       </c>
       <c r="F9">
-        <v>115.928</v>
+        <v>35.113</v>
       </c>
       <c r="G9">
-        <v>450.72899999999998</v>
+        <v>145.143</v>
       </c>
       <c r="H9">
-        <v>1602.684</v>
+        <v>460.95</v>
       </c>
       <c r="I9">
-        <v>10.518000000000001</v>
+        <v>9.9689999999999994</v>
       </c>
       <c r="J9">
-        <v>99.49</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-5.726</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>355.37099999999998</v>
+        <v>93.308999999999997</v>
       </c>
       <c r="O9">
-        <v>586.66899999999998</v>
+        <v>127.16500000000001</v>
       </c>
       <c r="P9">
-        <v>132.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>66.375</v>
+        <v>23.902999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1016.015</v>
+        <v>333.78500000000003</v>
       </c>
       <c r="U9">
-        <v>223.68799999999999</v>
+        <v>41.667999999999999</v>
       </c>
       <c r="V9">
-        <v>101.849</v>
+        <v>59.941000000000003</v>
       </c>
       <c r="W9">
-        <v>-9.9109999999999996</v>
+        <v>-3.0760000000000001</v>
       </c>
       <c r="X9">
-        <v>-16.978999999999999</v>
+        <v>-18.323</v>
       </c>
       <c r="Y9">
-        <v>1.7410000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA9">
-        <v>42.475000000000001</v>
+        <v>11.298</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>40.506</v>
+        <v>11.677</v>
       </c>
       <c r="D10">
-        <v>278.69400000000002</v>
+        <v>102.563</v>
       </c>
       <c r="E10">
-        <v>129.46199999999999</v>
+        <v>74.09</v>
       </c>
       <c r="F10">
-        <v>122.23699999999999</v>
+        <v>36.866</v>
       </c>
       <c r="G10">
-        <v>408.93599999999998</v>
+        <v>134.929</v>
       </c>
       <c r="H10">
-        <v>1569.508</v>
+        <v>459.58100000000002</v>
       </c>
       <c r="I10">
-        <v>11.606999999999999</v>
+        <v>9.9290000000000003</v>
       </c>
       <c r="J10">
-        <v>93.81</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>299.75599999999997</v>
+        <v>83.484999999999999</v>
       </c>
       <c r="O10">
-        <v>522.94500000000005</v>
+        <v>119.2</v>
       </c>
       <c r="P10">
-        <v>129.303</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-30.834</v>
+        <v>-11.459</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1046.5630000000001</v>
+        <v>340.38099999999997</v>
       </c>
       <c r="U10">
-        <v>192.85400000000001</v>
+        <v>30.209</v>
       </c>
       <c r="V10">
-        <v>17.318999999999999</v>
+        <v>9.3930000000000007</v>
       </c>
       <c r="W10">
-        <v>-9.9019999999999992</v>
+        <v>-3.069</v>
       </c>
       <c r="X10">
-        <v>-23.943999999999999</v>
+        <v>-5.1150000000000002</v>
       </c>
       <c r="Y10">
-        <v>5.117</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA10">
-        <v>40.505000000000003</v>
+        <v>11.677</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>45.994999999999997</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="D11">
-        <v>281.54300000000001</v>
+        <v>98.897999999999996</v>
       </c>
       <c r="E11">
-        <v>126.82</v>
+        <v>62.761000000000003</v>
       </c>
       <c r="F11">
-        <v>114.59</v>
+        <v>38.402999999999999</v>
       </c>
       <c r="G11">
-        <v>392.76400000000001</v>
+        <v>127.711</v>
       </c>
       <c r="H11">
-        <v>1563.441</v>
+        <v>455.80500000000001</v>
       </c>
       <c r="I11">
-        <v>11.331</v>
+        <v>7.9459999999999997</v>
       </c>
       <c r="J11">
-        <v>88.125</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>260.791</v>
+        <v>69.536000000000001</v>
       </c>
       <c r="O11">
-        <v>483.601</v>
+        <v>104.624</v>
       </c>
       <c r="P11">
-        <v>132.636</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-10.803000000000001</v>
+        <v>3.093</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1079.8399999999999</v>
+        <v>351.18099999999998</v>
       </c>
       <c r="U11">
-        <v>182.05099999999999</v>
+        <v>33.302</v>
       </c>
       <c r="V11">
-        <v>33.256999999999998</v>
+        <v>17.427</v>
       </c>
       <c r="W11">
-        <v>-11.186999999999999</v>
+        <v>-3.069</v>
       </c>
       <c r="X11">
-        <v>-20.733000000000001</v>
+        <v>-1.7969999999999999</v>
       </c>
       <c r="Y11">
-        <v>6.93</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA11">
-        <v>45.996000000000002</v>
+        <v>12.316000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>47.668999999999997</v>
+        <v>14.106</v>
       </c>
       <c r="D12">
-        <v>298.14800000000002</v>
+        <v>109.188</v>
       </c>
       <c r="E12">
-        <v>231.26300000000001</v>
+        <v>150.95099999999999</v>
       </c>
       <c r="F12">
-        <v>124.23699999999999</v>
+        <v>42.954000000000001</v>
       </c>
       <c r="G12">
-        <v>447.88499999999999</v>
+        <v>217.262</v>
       </c>
       <c r="H12">
-        <v>1629.155</v>
+        <v>548.57500000000005</v>
       </c>
       <c r="I12">
-        <v>11.701000000000001</v>
+        <v>9.6170000000000009</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>412.25799999999998</v>
+        <v>146.78</v>
       </c>
       <c r="O12">
-        <v>556.98599999999999</v>
+        <v>183.352</v>
       </c>
       <c r="P12">
-        <v>15.295</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-54.146000000000001</v>
+        <v>-1.288</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>5139</v>
+        <v>2257</v>
       </c>
       <c r="T12">
-        <v>1072.1690000000001</v>
+        <v>365.22300000000001</v>
       </c>
       <c r="U12">
-        <v>127.905</v>
+        <v>32.014000000000003</v>
       </c>
       <c r="V12">
-        <v>156.749</v>
+        <v>12.1</v>
       </c>
       <c r="W12">
-        <v>-17.202000000000002</v>
+        <v>-3.0760000000000001</v>
       </c>
       <c r="X12">
-        <v>-179.68199999999999</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="Y12">
-        <v>7.3659999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AA12">
-        <v>47.668999999999997</v>
+        <v>14.106</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>43.220999999999997</v>
+        <v>13.856999999999999</v>
       </c>
       <c r="D13">
-        <v>277.73</v>
+        <v>108.94</v>
       </c>
       <c r="E13">
-        <v>152.624</v>
+        <v>65.593999999999994</v>
       </c>
       <c r="F13">
-        <v>117.289</v>
+        <v>42.656999999999996</v>
       </c>
       <c r="G13">
-        <v>430.459</v>
+        <v>201.898</v>
       </c>
       <c r="H13">
-        <v>1615.1420000000001</v>
+        <v>543.35199999999998</v>
       </c>
       <c r="I13">
-        <v>13.914</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-2.798</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>365.24299999999999</v>
+        <v>120.29</v>
       </c>
       <c r="O13">
-        <v>510.36099999999999</v>
+        <v>157.87299999999999</v>
       </c>
       <c r="P13">
-        <v>17.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>53.881999999999998</v>
+        <v>71.018000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1104.7809999999999</v>
+        <v>385.47899999999998</v>
       </c>
       <c r="U13">
-        <v>181.78700000000001</v>
+        <v>103.032</v>
       </c>
       <c r="V13">
-        <v>97.69</v>
+        <v>84.721999999999994</v>
       </c>
       <c r="W13">
-        <v>-17.053999999999998</v>
+        <v>-3.1059999999999999</v>
       </c>
       <c r="X13">
-        <v>-21.9</v>
+        <v>4.4180000000000001</v>
       </c>
       <c r="Y13">
-        <v>6.5430000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AA13">
-        <v>43.220999999999997</v>
+        <v>13.856999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>48.362000000000002</v>
+        <v>14.523</v>
       </c>
       <c r="D14">
-        <v>288.84399999999999</v>
+        <v>112.73</v>
       </c>
       <c r="E14">
-        <v>136.369</v>
+        <v>67.831999999999994</v>
       </c>
       <c r="F14">
-        <v>123.02</v>
+        <v>44.709000000000003</v>
       </c>
       <c r="G14">
-        <v>382.71100000000001</v>
+        <v>210.59200000000001</v>
       </c>
       <c r="H14">
-        <v>1582.144</v>
+        <v>548.375</v>
       </c>
       <c r="I14">
-        <v>10.731</v>
+        <v>5.7030000000000003</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>289.54599999999999</v>
+        <v>102.419</v>
       </c>
       <c r="O14">
-        <v>436.697</v>
+        <v>141.57300000000001</v>
       </c>
       <c r="P14">
-        <v>9.6780000000000008</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-26.286000000000001</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1145.4469999999999</v>
+        <v>406.80200000000002</v>
       </c>
       <c r="U14">
-        <v>155.501</v>
+        <v>108.536</v>
       </c>
       <c r="V14">
-        <v>33.625999999999998</v>
+        <v>7.3879999999999999</v>
       </c>
       <c r="W14">
-        <v>-17.091999999999999</v>
+        <v>-3.1240000000000001</v>
       </c>
       <c r="X14">
-        <v>-26.768000000000001</v>
+        <v>4.3689999999999998</v>
       </c>
       <c r="Y14">
-        <v>5.6890000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="AA14">
-        <v>48.360999999999997</v>
+        <v>14.523</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>42.604999999999997</v>
+        <v>16.315999999999999</v>
       </c>
       <c r="D15">
-        <v>291.43400000000003</v>
+        <v>119.708</v>
       </c>
       <c r="E15">
-        <v>140.01</v>
+        <v>66.98</v>
       </c>
       <c r="F15">
-        <v>117.375</v>
+        <v>47.319000000000003</v>
       </c>
       <c r="G15">
-        <v>278.98500000000001</v>
+        <v>187.529</v>
       </c>
       <c r="H15">
-        <v>1514.472</v>
+        <v>547.654</v>
       </c>
       <c r="I15">
-        <v>7.0979999999999999</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>254.44800000000001</v>
+        <v>85.489000000000004</v>
       </c>
       <c r="O15">
-        <v>399.93200000000002</v>
+        <v>124.96299999999999</v>
       </c>
       <c r="P15">
-        <v>15.454000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-103.25700000000001</v>
+        <v>-19.631</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1114.54</v>
+        <v>422.69099999999997</v>
       </c>
       <c r="U15">
-        <v>52.244</v>
+        <v>88.905000000000001</v>
       </c>
       <c r="V15">
-        <v>30.120999999999999</v>
+        <v>11.558999999999999</v>
       </c>
       <c r="W15">
-        <v>-18.623999999999999</v>
+        <v>-3.585</v>
       </c>
       <c r="X15">
-        <v>-82.355000000000004</v>
+        <v>-0.93200000000000005</v>
       </c>
       <c r="Y15">
-        <v>3.6219999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AA15">
-        <v>42.606000000000002</v>
+        <v>16.315999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>52.527000000000001</v>
+        <v>17.619</v>
       </c>
       <c r="D16">
-        <v>315.166</v>
+        <v>126.03700000000001</v>
       </c>
       <c r="E16">
-        <v>224.041</v>
+        <v>169.87299999999999</v>
       </c>
       <c r="F16">
-        <v>136.119</v>
+        <v>53.292999999999999</v>
       </c>
       <c r="G16">
-        <v>390.50599999999997</v>
+        <v>259.05799999999999</v>
       </c>
       <c r="H16">
-        <v>1680.703</v>
+        <v>653.61400000000003</v>
       </c>
       <c r="I16">
-        <v>10.516</v>
+        <v>9.1709999999999994</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>446.80900000000003</v>
+        <v>173.24</v>
       </c>
       <c r="O16">
-        <v>713.31600000000003</v>
+        <v>210.696</v>
       </c>
       <c r="P16">
-        <v>9.1359999999999992</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.132999999999999</v>
+        <v>-35.146999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>5499</v>
+        <v>2533</v>
       </c>
       <c r="T16">
-        <v>967.38699999999994</v>
+        <v>442.91800000000001</v>
       </c>
       <c r="U16">
-        <v>70.376999999999995</v>
+        <v>53.758000000000003</v>
       </c>
       <c r="V16">
-        <v>180.22200000000001</v>
+        <v>9.14</v>
       </c>
       <c r="W16">
-        <v>-18.481000000000002</v>
+        <v>-3.593</v>
       </c>
       <c r="X16">
-        <v>-136.38399999999999</v>
+        <v>1.117</v>
       </c>
       <c r="Y16">
-        <v>3.7290000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA16">
-        <v>52.527000000000001</v>
+        <v>17.619</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>46.088000000000001</v>
+        <v>16.673999999999999</v>
       </c>
       <c r="D17">
-        <v>301.47399999999999</v>
+        <v>124.096</v>
       </c>
       <c r="E17">
-        <v>159.11000000000001</v>
+        <v>75.293999999999997</v>
       </c>
       <c r="F17">
-        <v>126.59</v>
+        <v>50.561999999999998</v>
       </c>
       <c r="G17">
-        <v>310.32299999999998</v>
+        <v>227.035</v>
       </c>
       <c r="H17">
-        <v>1620.797</v>
+        <v>633.29300000000001</v>
       </c>
       <c r="I17">
-        <v>8.3160000000000007</v>
+        <v>5.1539999999999999</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2014,84 +2134,84 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>404.72399999999999</v>
+        <v>135.65700000000001</v>
       </c>
       <c r="O17">
-        <v>686.32600000000002</v>
+        <v>174.06</v>
       </c>
       <c r="P17">
-        <v>11.005000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-30.975000000000001</v>
+        <v>66.087000000000003</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>934.471</v>
+        <v>459.233</v>
       </c>
       <c r="U17">
-        <v>39.402000000000001</v>
+        <v>119.845</v>
       </c>
       <c r="V17">
-        <v>93.147999999999996</v>
+        <v>87.674999999999997</v>
       </c>
       <c r="W17">
-        <v>-18.042000000000002</v>
+        <v>-3.6120000000000001</v>
       </c>
       <c r="X17">
-        <v>-81.242000000000004</v>
+        <v>-0.95099999999999996</v>
       </c>
       <c r="Y17">
-        <v>1.0409999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA17">
-        <v>46.088000000000001</v>
+        <v>16.673999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>53.881</v>
+        <v>17.692</v>
       </c>
       <c r="D18">
-        <v>311.29399999999998</v>
+        <v>135.96</v>
       </c>
       <c r="E18">
-        <v>147.88999999999999</v>
+        <v>87.921000000000006</v>
       </c>
       <c r="F18">
-        <v>131.035</v>
+        <v>54.749000000000002</v>
       </c>
       <c r="G18">
-        <v>306.78100000000001</v>
+        <v>142.88200000000001</v>
       </c>
       <c r="H18">
-        <v>1620.971</v>
+        <v>661.58799999999997</v>
       </c>
       <c r="I18">
-        <v>7.8890000000000002</v>
+        <v>8.5310000000000006</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>405.25900000000001</v>
+        <v>138.86799999999999</v>
       </c>
       <c r="O18">
-        <v>698.90899999999999</v>
+        <v>179.226</v>
       </c>
       <c r="P18">
-        <v>78.811000000000007</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>9.93</v>
+        <v>-97.33</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>922.06200000000001</v>
+        <v>482.36200000000002</v>
       </c>
       <c r="U18">
-        <v>49.332000000000001</v>
+        <v>22.515000000000001</v>
       </c>
       <c r="V18">
-        <v>33.75</v>
+        <v>6.5350000000000001</v>
       </c>
       <c r="W18">
-        <v>-17.919</v>
+        <v>-3.6269999999999998</v>
       </c>
       <c r="X18">
-        <v>-3.302</v>
+        <v>12.058999999999999</v>
       </c>
       <c r="Y18">
-        <v>0.92300000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA18">
-        <v>53.881999999999998</v>
+        <v>17.692</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>50.71</v>
+        <v>19.428999999999998</v>
       </c>
       <c r="D19">
-        <v>309.709</v>
+        <v>134.38200000000001</v>
       </c>
       <c r="E19">
-        <v>137.41499999999999</v>
+        <v>80.025999999999996</v>
       </c>
       <c r="F19">
-        <v>131.815</v>
+        <v>57.277000000000001</v>
       </c>
       <c r="G19">
-        <v>294.53199999999998</v>
+        <v>127.295</v>
       </c>
       <c r="H19">
-        <v>1618.1389999999999</v>
+        <v>660.1</v>
       </c>
       <c r="I19">
-        <v>6.6390000000000002</v>
+        <v>7.9189999999999996</v>
       </c>
       <c r="J19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>287.60500000000002</v>
+        <v>113.471</v>
       </c>
       <c r="O19">
-        <v>661.529</v>
+        <v>157.226</v>
       </c>
       <c r="P19">
-        <v>77.447000000000003</v>
+        <v>14</v>
       </c>
       <c r="Q19">
-        <v>3.468</v>
+        <v>-6.5629999999999997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>956.61</v>
+        <v>502.87400000000002</v>
       </c>
       <c r="U19">
-        <v>52.8</v>
+        <v>15.952</v>
       </c>
       <c r="V19">
-        <v>55.588999999999999</v>
+        <v>10.906000000000001</v>
       </c>
       <c r="W19">
-        <v>-20.222000000000001</v>
+        <v>-4.1070000000000002</v>
       </c>
       <c r="X19">
-        <v>-21.187999999999999</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="Y19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AA19">
-        <v>50.712000000000003</v>
+        <v>19.428999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>60.542000000000002</v>
+        <v>21.706</v>
       </c>
       <c r="D20">
-        <v>333.71300000000002</v>
+        <v>141.42500000000001</v>
       </c>
       <c r="E20">
-        <v>245.387</v>
+        <v>209.922</v>
       </c>
       <c r="F20">
-        <v>146.41499999999999</v>
+        <v>59.862000000000002</v>
       </c>
       <c r="G20">
-        <v>493.49900000000002</v>
+        <v>260.29300000000001</v>
       </c>
       <c r="H20">
-        <v>1836.835</v>
+        <v>814.15300000000002</v>
       </c>
       <c r="I20">
-        <v>9.9329999999999998</v>
+        <v>15.895</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>443.61099999999999</v>
+        <v>246.583</v>
       </c>
       <c r="O20">
-        <v>845.30100000000004</v>
+        <v>296.99900000000002</v>
       </c>
       <c r="P20">
-        <v>52.697000000000003</v>
+        <v>45</v>
       </c>
       <c r="Q20">
-        <v>95.513000000000005</v>
+        <v>-4.3440000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>5822</v>
+        <v>2989</v>
       </c>
       <c r="T20">
-        <v>991.53399999999999</v>
+        <v>517.154</v>
       </c>
       <c r="U20">
-        <v>148.31299999999999</v>
+        <v>11.608000000000001</v>
       </c>
       <c r="V20">
-        <v>191.303</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="W20">
-        <v>-20.227</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="X20">
-        <v>-53.137999999999998</v>
+        <v>20.18</v>
       </c>
       <c r="Y20">
-        <v>0.10199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA20">
-        <v>60.542000000000002</v>
+        <v>21.706</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>51.366</v>
+        <v>19.422000000000001</v>
       </c>
       <c r="D21">
-        <v>321.61799999999999</v>
+        <v>136.983</v>
       </c>
       <c r="E21">
-        <v>147.65199999999999</v>
+        <v>88.908000000000001</v>
       </c>
       <c r="F21">
-        <v>137.95500000000001</v>
+        <v>56.555</v>
       </c>
       <c r="G21">
-        <v>345.42500000000001</v>
+        <v>183.739</v>
       </c>
       <c r="H21">
-        <v>1714.1969999999999</v>
+        <v>738.30600000000004</v>
       </c>
       <c r="I21">
-        <v>8.1159999999999997</v>
+        <v>5.7309999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2346,84 +2466,84 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-51.59</v>
+        <v>-45</v>
       </c>
       <c r="N21">
-        <v>397.226</v>
+        <v>156.90299999999999</v>
       </c>
       <c r="O21">
-        <v>759.91300000000001</v>
+        <v>207.393</v>
       </c>
       <c r="P21">
-        <v>1.107</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-63.828000000000003</v>
+        <v>43.95</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>954.28399999999999</v>
+        <v>530.91300000000001</v>
       </c>
       <c r="U21">
-        <v>84.484999999999999</v>
+        <v>55.558</v>
       </c>
       <c r="V21">
-        <v>126.81</v>
+        <v>107.907</v>
       </c>
       <c r="W21">
-        <v>-20.2</v>
+        <v>-4.1210000000000004</v>
       </c>
       <c r="X21">
-        <v>-142.07599999999999</v>
+        <v>-51.982999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AA21">
-        <v>51.366</v>
+        <v>19.422000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>59.347999999999999</v>
+        <v>21.635999999999999</v>
       </c>
       <c r="D22">
-        <v>332.87200000000001</v>
+        <v>147.417</v>
       </c>
       <c r="E22">
-        <v>147.09100000000001</v>
+        <v>102.84099999999999</v>
       </c>
       <c r="F22">
-        <v>142.42699999999999</v>
+        <v>65.483000000000004</v>
       </c>
       <c r="G22">
-        <v>320.017</v>
+        <v>179.66200000000001</v>
       </c>
       <c r="H22">
-        <v>1708.865</v>
+        <v>765.87800000000004</v>
       </c>
       <c r="I22">
-        <v>5.6529999999999996</v>
+        <v>7.673</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>333.75099999999998</v>
+        <v>160.38499999999999</v>
       </c>
       <c r="O22">
-        <v>796.39099999999996</v>
+        <v>218.51599999999999</v>
       </c>
       <c r="P22">
-        <v>100.32299999999999</v>
+        <v>25</v>
       </c>
       <c r="Q22">
-        <v>-29.359000000000002</v>
+        <v>-17.309000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>912.47400000000005</v>
+        <v>547.36199999999997</v>
       </c>
       <c r="U22">
-        <v>55.125999999999998</v>
+        <v>38.249000000000002</v>
       </c>
       <c r="V22">
-        <v>20.47</v>
+        <v>-0.67900000000000005</v>
       </c>
       <c r="W22">
-        <v>-19.771999999999998</v>
+        <v>-4.1040000000000001</v>
       </c>
       <c r="X22">
-        <v>-5.2709999999999999</v>
+        <v>17.422999999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA22">
-        <v>59.347999999999999</v>
+        <v>21.635999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>53.883000000000003</v>
+        <v>23.46</v>
       </c>
       <c r="D23">
-        <v>333.18599999999998</v>
+        <v>145.495</v>
       </c>
       <c r="E23">
-        <v>137.40600000000001</v>
+        <v>99.716999999999999</v>
       </c>
       <c r="F23">
-        <v>138.91300000000001</v>
+        <v>63.682000000000002</v>
       </c>
       <c r="G23">
-        <v>309.97000000000003</v>
+        <v>173.52099999999999</v>
       </c>
       <c r="H23">
-        <v>1702.6220000000001</v>
+        <v>769.37400000000002</v>
       </c>
       <c r="I23">
-        <v>7.06</v>
+        <v>6.2549999999999999</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>279.26400000000001</v>
+        <v>125.736</v>
       </c>
       <c r="O23">
-        <v>753.755</v>
+        <v>189.476</v>
       </c>
       <c r="P23">
-        <v>100.21299999999999</v>
+        <v>25</v>
       </c>
       <c r="Q23">
-        <v>-1.125</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>948.86699999999996</v>
+        <v>579.89800000000002</v>
       </c>
       <c r="U23">
-        <v>54.000999999999998</v>
+        <v>38.805</v>
       </c>
       <c r="V23">
-        <v>60.091000000000001</v>
+        <v>6.1559999999999997</v>
       </c>
       <c r="W23">
-        <v>-22.065000000000001</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="X23">
-        <v>-20.739000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="AA23">
-        <v>53.883000000000003</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>84.27</v>
+        <v>25.405000000000001</v>
       </c>
       <c r="D24">
-        <v>366.96899999999999</v>
+        <v>162.31</v>
       </c>
       <c r="E24">
-        <v>253.923</v>
+        <v>180.29499999999999</v>
       </c>
       <c r="F24">
-        <v>161.69999999999999</v>
+        <v>70.727000000000004</v>
       </c>
       <c r="G24">
-        <v>431.92899999999997</v>
+        <v>306.41000000000003</v>
       </c>
       <c r="H24">
-        <v>1815.5119999999999</v>
+        <v>906.06700000000001</v>
       </c>
       <c r="I24">
-        <v>14.596</v>
+        <v>14.525</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>50.241</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>443.73200000000003</v>
+        <v>263.49200000000002</v>
       </c>
       <c r="O24">
-        <v>819.30200000000002</v>
+        <v>330.85500000000002</v>
       </c>
       <c r="P24">
-        <v>0.2</v>
+        <v>50.241</v>
       </c>
       <c r="Q24">
-        <v>16.309000000000001</v>
+        <v>35.334000000000003</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>5861</v>
+        <v>3310</v>
       </c>
       <c r="T24">
-        <v>996.21</v>
+        <v>575.21199999999999</v>
       </c>
       <c r="U24">
-        <v>70.31</v>
+        <v>74.138999999999996</v>
       </c>
       <c r="V24">
-        <v>159.05099999999999</v>
+        <v>56.054000000000002</v>
       </c>
       <c r="W24">
-        <v>-22.081</v>
+        <v>-5.0979999999999999</v>
       </c>
       <c r="X24">
-        <v>-140.376</v>
+        <v>-7.577</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="AA24">
-        <v>84.27</v>
+        <v>25.405000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>62.244</v>
+        <v>21.411999999999999</v>
       </c>
       <c r="D25">
-        <v>345.02800000000002</v>
+        <v>150.61500000000001</v>
       </c>
       <c r="E25">
-        <v>148.428</v>
+        <v>118.768</v>
       </c>
       <c r="F25">
-        <v>150.26499999999999</v>
+        <v>63.307000000000002</v>
       </c>
       <c r="G25">
-        <v>342.9</v>
+        <v>217.79499999999999</v>
       </c>
       <c r="H25">
-        <v>1732.252</v>
+        <v>821.10400000000004</v>
       </c>
       <c r="I25">
-        <v>7.0919999999999996</v>
+        <v>5.351</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2675,87 +2795,87 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-50.036999999999999</v>
       </c>
       <c r="M25">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>379.37099999999998</v>
+        <v>175.74299999999999</v>
       </c>
       <c r="O25">
-        <v>759.66300000000001</v>
+        <v>245.33799999999999</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Q25">
-        <v>14.209</v>
+        <v>-24.297000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>972.58900000000006</v>
+        <v>575.76599999999996</v>
       </c>
       <c r="U25">
-        <v>84.519000000000005</v>
+        <v>49.841999999999999</v>
       </c>
       <c r="V25">
-        <v>133.37100000000001</v>
+        <v>61.465000000000003</v>
       </c>
       <c r="W25">
-        <v>-21.856999999999999</v>
+        <v>-5.01</v>
       </c>
       <c r="X25">
-        <v>-87.260999999999996</v>
+        <v>-71.409000000000006</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="AA25">
-        <v>62.244</v>
+        <v>21.411999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>58.814</v>
+        <v>27.788</v>
       </c>
       <c r="D26">
-        <v>348.553</v>
+        <v>167.244</v>
       </c>
       <c r="E26">
-        <v>146.256</v>
+        <v>113.258</v>
       </c>
       <c r="F26">
-        <v>150.40700000000001</v>
+        <v>72.988</v>
       </c>
       <c r="G26">
-        <v>323.73700000000002</v>
+        <v>187.745</v>
       </c>
       <c r="H26">
-        <v>1718.095</v>
+        <v>830.32299999999998</v>
       </c>
       <c r="I26">
-        <v>15.863</v>
+        <v>8.1609999999999996</v>
       </c>
       <c r="J26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,82 +2884,82 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>328.58800000000002</v>
+        <v>177.517</v>
       </c>
       <c r="O26">
-        <v>746.68299999999999</v>
+        <v>251.44900000000001</v>
       </c>
       <c r="P26">
-        <v>50</v>
+        <v>25.277999999999999</v>
       </c>
       <c r="Q26">
-        <v>-20.331</v>
+        <v>-22.216999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>971.41200000000003</v>
+        <v>578.87400000000002</v>
       </c>
       <c r="U26">
-        <v>64.188000000000002</v>
+        <v>27.625</v>
       </c>
       <c r="V26">
-        <v>30.495999999999999</v>
+        <v>24.613</v>
       </c>
       <c r="W26">
-        <v>-21.725000000000001</v>
+        <v>-4.976</v>
       </c>
       <c r="X26">
-        <v>-13.025</v>
+        <v>-0.72099999999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="AA26">
-        <v>58.814</v>
+        <v>27.788</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>60.043999999999997</v>
+        <v>26.38</v>
       </c>
       <c r="D27">
-        <v>353.767</v>
+        <v>168.90299999999999</v>
       </c>
       <c r="E27">
-        <v>139.50299999999999</v>
+        <v>114.499</v>
       </c>
       <c r="F27">
-        <v>147.04</v>
+        <v>71.683999999999997</v>
       </c>
       <c r="G27">
-        <v>299.154</v>
+        <v>189.75299999999999</v>
       </c>
       <c r="H27">
-        <v>1686.9829999999999</v>
+        <v>834.65099999999995</v>
       </c>
       <c r="I27">
-        <v>5.2549999999999999</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>269.87599999999998</v>
+        <v>161.875</v>
       </c>
       <c r="O27">
-        <v>674.87099999999998</v>
+        <v>242.61799999999999</v>
       </c>
       <c r="P27">
-        <v>50</v>
+        <v>50.491999999999997</v>
       </c>
       <c r="Q27">
-        <v>-21.271999999999998</v>
+        <v>0.105</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1012.112</v>
+        <v>592.03300000000002</v>
       </c>
       <c r="U27">
-        <v>42.915999999999997</v>
+        <v>27.73</v>
       </c>
       <c r="V27">
-        <v>35</v>
+        <v>5.3470000000000004</v>
       </c>
       <c r="W27">
-        <v>-24.059000000000001</v>
+        <v>-5.8689999999999998</v>
       </c>
       <c r="X27">
-        <v>-22.475999999999999</v>
+        <v>9.1560000000000006</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AA27">
-        <v>60.043999999999997</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>64.691000000000003</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>383.76799999999997</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>276.923</v>
+        <v>209.24199999999999</v>
       </c>
       <c r="F28">
-        <v>167.64500000000001</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>520.03099999999995</v>
+        <v>350.38499999999999</v>
       </c>
       <c r="H28">
-        <v>1908.9449999999999</v>
+        <v>999.34</v>
       </c>
       <c r="I28">
-        <v>6.8410000000000002</v>
+        <v>11.481</v>
       </c>
       <c r="J28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>70.503</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>471.19200000000001</v>
+        <v>330.47699999999998</v>
       </c>
       <c r="O28">
-        <v>876.89400000000001</v>
+        <v>400.97500000000002</v>
       </c>
       <c r="P28">
-        <v>50</v>
+        <v>70.503</v>
       </c>
       <c r="Q28">
-        <v>71.849000000000004</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>5972</v>
+        <v>3583</v>
       </c>
       <c r="T28">
-        <v>1032.0509999999999</v>
+        <v>598.36500000000001</v>
       </c>
       <c r="U28">
-        <v>114.765</v>
+        <v>88.617000000000004</v>
       </c>
       <c r="V28">
-        <v>158.45500000000001</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-24.065999999999999</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-48.518999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,36 +3089,36 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>64.691000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>66.87</v>
+        <v>23.539000000000001</v>
       </c>
       <c r="D29">
-        <v>361.28399999999999</v>
+        <v>174.876</v>
       </c>
       <c r="E29">
-        <v>172.51499999999999</v>
+        <v>132.15299999999999</v>
       </c>
       <c r="F29">
-        <v>157.369</v>
+        <v>69.602000000000004</v>
       </c>
       <c r="G29">
-        <v>403.87099999999998</v>
+        <v>237.66900000000001</v>
       </c>
       <c r="H29">
-        <v>1796.345</v>
+        <v>901.85199999999998</v>
       </c>
       <c r="I29">
-        <v>8.8569999999999993</v>
+        <v>6.2919999999999998</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3007,87 +3127,87 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-71.42</v>
       </c>
       <c r="M29">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>414.74</v>
+        <v>210.18899999999999</v>
       </c>
       <c r="O29">
-        <v>758.53200000000004</v>
+        <v>285.24599999999998</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="Q29">
-        <v>-10.725</v>
+        <v>-34.090000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1037.8130000000001</v>
+        <v>616.60599999999999</v>
       </c>
       <c r="U29">
-        <v>104.04</v>
+        <v>54.527000000000001</v>
       </c>
       <c r="V29">
-        <v>138.72200000000001</v>
+        <v>69.128</v>
       </c>
       <c r="W29">
-        <v>-23.904</v>
+        <v>-5.8070000000000004</v>
       </c>
       <c r="X29">
-        <v>-109.16200000000001</v>
+        <v>-72.543999999999997</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AA29">
-        <v>66.87</v>
+        <v>23.539000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>161.24299999999999</v>
+        <v>29.151</v>
       </c>
       <c r="D30">
-        <v>357.209</v>
+        <v>191.869</v>
       </c>
       <c r="E30">
-        <v>166.827</v>
+        <v>128.07599999999999</v>
       </c>
       <c r="F30">
-        <v>150.10900000000001</v>
+        <v>84.965999999999994</v>
       </c>
       <c r="G30">
-        <v>369.6</v>
+        <v>208.61</v>
       </c>
       <c r="H30">
-        <v>1917.076</v>
+        <v>907.80499999999995</v>
       </c>
       <c r="I30">
-        <v>13.135</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>353.75400000000002</v>
+        <v>204.16200000000001</v>
       </c>
       <c r="O30">
-        <v>743.07600000000002</v>
+        <v>277.60199999999998</v>
       </c>
       <c r="P30">
-        <v>100</v>
+        <v>25.350999999999999</v>
       </c>
       <c r="Q30">
-        <v>-46.320999999999998</v>
+        <v>-26.390999999999998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1174</v>
+        <v>630.20299999999997</v>
       </c>
       <c r="U30">
-        <v>57.719000000000001</v>
+        <v>28.135999999999999</v>
       </c>
       <c r="V30">
-        <v>38.186</v>
+        <v>14.292999999999999</v>
       </c>
       <c r="W30">
-        <v>-23.94</v>
+        <v>-5.81</v>
       </c>
       <c r="X30">
-        <v>77.516999999999996</v>
+        <v>8.3740000000000006</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>161.24299999999999</v>
+        <v>29.151</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>69.085999999999999</v>
+        <v>26.611999999999998</v>
       </c>
       <c r="D31">
-        <v>374.048</v>
+        <v>187.48</v>
       </c>
       <c r="E31">
-        <v>168.934</v>
+        <v>125.879</v>
       </c>
       <c r="F31">
-        <v>155.53100000000001</v>
+        <v>76.995000000000005</v>
       </c>
       <c r="G31">
-        <v>362.03</v>
+        <v>215.96299999999999</v>
       </c>
       <c r="H31">
-        <v>1905.3679999999999</v>
+        <v>915.59500000000003</v>
       </c>
       <c r="I31">
-        <v>7.3319999999999999</v>
+        <v>7.3970000000000002</v>
       </c>
       <c r="J31">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>289.238</v>
+        <v>223.459</v>
       </c>
       <c r="O31">
-        <v>682.28300000000002</v>
+        <v>306.82</v>
       </c>
       <c r="P31">
-        <v>105</v>
+        <v>85.266000000000005</v>
       </c>
       <c r="Q31">
-        <v>-0.317</v>
+        <v>12.442</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1223.085</v>
+        <v>608.77499999999998</v>
       </c>
       <c r="U31">
-        <v>57.402000000000001</v>
+        <v>40.578000000000003</v>
       </c>
       <c r="V31">
-        <v>57.963999999999999</v>
+        <v>14.048999999999999</v>
       </c>
       <c r="W31">
-        <v>-28.585000000000001</v>
+        <v>-6.5490000000000004</v>
       </c>
       <c r="X31">
-        <v>-21.535</v>
+        <v>10.96</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Z31">
-        <v>-5</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA31">
-        <v>69.085999999999999</v>
+        <v>26.611999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>67.834999999999994</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>378.25599999999997</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>311.334</v>
+        <v>213.947</v>
       </c>
       <c r="F32">
-        <v>154.65</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>470.74200000000002</v>
+        <v>329.75700000000001</v>
       </c>
       <c r="H32">
-        <v>2033.058</v>
+        <v>1021.044</v>
       </c>
       <c r="I32">
-        <v>30.36</v>
+        <v>6.9459999999999997</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>70.177000000000007</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>448.05500000000001</v>
+        <v>341.17500000000001</v>
       </c>
       <c r="O32">
-        <v>710.21400000000006</v>
+        <v>419.59300000000002</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>70.177000000000007</v>
       </c>
       <c r="Q32">
-        <v>-25.962</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>6307</v>
+        <v>3824</v>
       </c>
       <c r="T32">
-        <v>1322.8440000000001</v>
+        <v>601.45100000000002</v>
       </c>
       <c r="U32">
-        <v>31.44</v>
+        <v>65.564999999999998</v>
       </c>
       <c r="V32">
-        <v>177.27</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>-28.591999999999999</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-150.46100000000001</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,125 +3421,125 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>67.834999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>83.551000000000002</v>
+        <v>22.509</v>
       </c>
       <c r="D33">
-        <v>392.54300000000001</v>
+        <v>183.09800000000001</v>
       </c>
       <c r="E33">
-        <v>215.048</v>
+        <v>125.958</v>
       </c>
       <c r="F33">
-        <v>172.43100000000001</v>
+        <v>72.528999999999996</v>
       </c>
       <c r="G33">
-        <v>457.839</v>
+        <v>210.85599999999999</v>
       </c>
       <c r="H33">
-        <v>2033.1020000000001</v>
+        <v>900.89200000000005</v>
       </c>
       <c r="I33">
-        <v>10.477</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-60.076000000000001</v>
       </c>
       <c r="N33">
-        <v>420.226</v>
+        <v>232.57400000000001</v>
       </c>
       <c r="O33">
-        <v>664.53800000000001</v>
+        <v>312.99599999999998</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>20.163</v>
       </c>
       <c r="Q33">
-        <v>83.432000000000002</v>
+        <v>-40.729999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1368.5640000000001</v>
+        <v>587.89599999999996</v>
       </c>
       <c r="U33">
-        <v>114.872</v>
+        <v>24.835000000000001</v>
       </c>
       <c r="V33">
-        <v>146.73400000000001</v>
+        <v>59.152000000000001</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-6.3879999999999999</v>
       </c>
       <c r="X33">
-        <v>-11.039</v>
+        <v>-86.619</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA33">
-        <v>83.551000000000002</v>
+        <v>22.509</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>68.088999999999999</v>
+        <v>27.984999999999999</v>
       </c>
       <c r="D34">
-        <v>386.27499999999998</v>
+        <v>190.20400000000001</v>
       </c>
       <c r="E34">
-        <v>201.434</v>
+        <v>122.666</v>
       </c>
       <c r="F34">
-        <v>158.99100000000001</v>
+        <v>77.373000000000005</v>
       </c>
       <c r="G34">
-        <v>362.63900000000001</v>
+        <v>220.32400000000001</v>
       </c>
       <c r="H34">
-        <v>1971.777</v>
+        <v>916.55100000000004</v>
       </c>
       <c r="I34">
-        <v>6.5970000000000004</v>
+        <v>9.3330000000000002</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>60.551000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>340.07400000000001</v>
+        <v>241.655</v>
       </c>
       <c r="O34">
-        <v>579.822</v>
+        <v>324.59500000000003</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>66.834000000000003</v>
       </c>
       <c r="Q34">
-        <v>-88.715999999999994</v>
+        <v>15.766999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1391.9549999999999</v>
+        <v>591.95600000000002</v>
       </c>
       <c r="U34">
-        <v>26.155999999999999</v>
+        <v>40.601999999999997</v>
       </c>
       <c r="V34">
-        <v>45.31</v>
+        <v>16.556000000000001</v>
       </c>
       <c r="W34">
-        <v>-57.103999999999999</v>
+        <v>-6.3</v>
       </c>
       <c r="X34">
-        <v>-76.635999999999996</v>
+        <v>15.907999999999999</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>68.088999999999999</v>
+        <v>27.984999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>59.252000000000002</v>
+        <v>24.802</v>
       </c>
       <c r="D35">
-        <v>380.36399999999998</v>
+        <v>180.40799999999999</v>
       </c>
       <c r="E35">
-        <v>209.226</v>
+        <v>104.524</v>
       </c>
       <c r="F35">
-        <v>144.77000000000001</v>
+        <v>70.238</v>
       </c>
       <c r="G35">
-        <v>388.55599999999998</v>
+        <v>182.02600000000001</v>
       </c>
       <c r="H35">
-        <v>2002.8789999999999</v>
+        <v>872.71799999999996</v>
       </c>
       <c r="I35">
-        <v>10.907</v>
+        <v>5.38</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>330.86500000000001</v>
+        <v>189.47</v>
       </c>
       <c r="O35">
-        <v>576.87599999999998</v>
+        <v>269.41699999999997</v>
       </c>
       <c r="P35">
-        <v>35</v>
+        <v>64.742000000000004</v>
       </c>
       <c r="Q35">
-        <v>9.2420000000000009</v>
+        <v>-14.186999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1426.0029999999999</v>
+        <v>603.30100000000004</v>
       </c>
       <c r="U35">
-        <v>35.398000000000003</v>
+        <v>26.414999999999999</v>
       </c>
       <c r="V35">
-        <v>41.325000000000003</v>
+        <v>15.484999999999999</v>
       </c>
       <c r="W35">
-        <v>-30.866</v>
+        <v>-7.1390000000000002</v>
       </c>
       <c r="X35">
-        <v>6.2910000000000004</v>
+        <v>-17.141999999999999</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>59.252000000000002</v>
+        <v>24.802</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>60.993000000000002</v>
+        <v>27.806000000000001</v>
       </c>
       <c r="D36">
-        <v>393.50900000000001</v>
+        <v>191.88300000000001</v>
       </c>
       <c r="E36">
-        <v>331.52600000000001</v>
+        <v>192.733</v>
       </c>
       <c r="F36">
-        <v>153.46899999999999</v>
+        <v>79.259</v>
       </c>
       <c r="G36">
-        <v>569.44799999999998</v>
+        <v>359.64600000000002</v>
       </c>
       <c r="H36">
-        <v>2184.8290000000002</v>
+        <v>1050.7</v>
       </c>
       <c r="I36">
-        <v>9.85</v>
+        <v>8.2059999999999995</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>469.96199999999999</v>
+        <v>344.40699999999998</v>
       </c>
       <c r="O36">
-        <v>755.81600000000003</v>
+        <v>424.19400000000002</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>63.460999999999999</v>
       </c>
       <c r="Q36">
-        <v>58.23</v>
+        <v>91.835999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>6402</v>
+        <v>3808</v>
       </c>
       <c r="T36">
-        <v>1429.0129999999999</v>
+        <v>626.50599999999997</v>
       </c>
       <c r="U36">
-        <v>93.628</v>
+        <v>118.251</v>
       </c>
       <c r="V36">
-        <v>197.75899999999999</v>
+        <v>115.395</v>
       </c>
       <c r="W36">
-        <v>-30.774999999999999</v>
+        <v>-7.0759999999999996</v>
       </c>
       <c r="X36">
-        <v>-96.921000000000006</v>
+        <v>-6.8220000000000001</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,36 +3753,36 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>60.993000000000002</v>
+        <v>27.806000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>89.37</v>
+        <v>26.274000000000001</v>
       </c>
       <c r="D37">
-        <v>438.005</v>
+        <v>182.33099999999999</v>
       </c>
       <c r="E37">
-        <v>255.595</v>
+        <v>124.633</v>
       </c>
       <c r="F37">
-        <v>192.214</v>
+        <v>74.391000000000005</v>
       </c>
       <c r="G37">
-        <v>484.12299999999999</v>
+        <v>286.08999999999997</v>
       </c>
       <c r="H37">
-        <v>2225.9780000000001</v>
+        <v>979.65899999999999</v>
       </c>
       <c r="I37">
-        <v>13.621</v>
+        <v>9.17</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3674,84 +3794,84 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-62.165999999999997</v>
       </c>
       <c r="N37">
-        <v>393.07799999999997</v>
+        <v>240.709</v>
       </c>
       <c r="O37">
-        <v>749.31799999999998</v>
+        <v>322.90499999999997</v>
       </c>
       <c r="P37">
-        <v>74.23</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="Q37">
-        <v>3.0510000000000002</v>
+        <v>-10.233000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1476.66</v>
+        <v>656.75400000000002</v>
       </c>
       <c r="U37">
-        <v>96.679000000000002</v>
+        <v>108.018</v>
       </c>
       <c r="V37">
-        <v>123.05200000000001</v>
+        <v>65.656999999999996</v>
       </c>
       <c r="W37">
-        <v>-30.771000000000001</v>
+        <v>-7.1429999999999998</v>
       </c>
       <c r="X37">
-        <v>-44.576000000000001</v>
+        <v>-58.591000000000001</v>
       </c>
       <c r="Y37">
-        <v>62.188000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>89.37</v>
+        <v>26.274000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>72.097999999999999</v>
+        <v>29.977</v>
       </c>
       <c r="D38">
-        <v>419.11900000000003</v>
+        <v>210.86099999999999</v>
       </c>
       <c r="E38">
-        <v>226.57499999999999</v>
+        <v>117.95399999999999</v>
       </c>
       <c r="F38">
-        <v>169.852</v>
+        <v>89.08</v>
       </c>
       <c r="G38">
-        <v>427.73099999999999</v>
+        <v>203.59200000000001</v>
       </c>
       <c r="H38">
-        <v>2187.4389999999999</v>
+        <v>1036.954</v>
       </c>
       <c r="I38">
-        <v>10.67</v>
+        <v>11.728999999999999</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>61.731999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>343.154</v>
+        <v>267.06900000000002</v>
       </c>
       <c r="O38">
-        <v>700.69299999999998</v>
+        <v>352.14299999999997</v>
       </c>
       <c r="P38">
-        <v>70.971000000000004</v>
+        <v>61.731999999999999</v>
       </c>
       <c r="Q38">
-        <v>-24.166</v>
+        <v>-83.075000000000003</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1486.7460000000001</v>
+        <v>684.81100000000004</v>
       </c>
       <c r="U38">
-        <v>72.513000000000005</v>
+        <v>24.943000000000001</v>
       </c>
       <c r="V38">
-        <v>91.960999999999999</v>
+        <v>10.199</v>
       </c>
       <c r="W38">
-        <v>-30.731000000000002</v>
+        <v>-7.17</v>
       </c>
       <c r="X38">
-        <v>-66.156999999999996</v>
+        <v>54.055999999999997</v>
       </c>
       <c r="Y38">
-        <v>58.877000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>72.097999999999999</v>
+        <v>29.977</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>73.855000000000004</v>
+        <v>31.635000000000002</v>
       </c>
       <c r="D39">
-        <v>429.40600000000001</v>
+        <v>215.54900000000001</v>
       </c>
       <c r="E39">
-        <v>233.393</v>
+        <v>122.45699999999999</v>
       </c>
       <c r="F39">
-        <v>170.83500000000001</v>
+        <v>86.513000000000005</v>
       </c>
       <c r="G39">
-        <v>479.65</v>
+        <v>210.13800000000001</v>
       </c>
       <c r="H39">
-        <v>2229.4189999999999</v>
+        <v>1048.2380000000001</v>
       </c>
       <c r="I39">
-        <v>11.673</v>
+        <v>7.6630000000000003</v>
       </c>
       <c r="J39">
-        <v>55</v>
+        <v>1.675</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>72.905000000000001</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>298.40800000000002</v>
+        <v>230.274</v>
       </c>
       <c r="O39">
-        <v>715.55600000000004</v>
+        <v>324.64999999999998</v>
       </c>
       <c r="P39">
-        <v>123.021</v>
+        <v>75.465999999999994</v>
       </c>
       <c r="Q39">
-        <v>37.000999999999998</v>
+        <v>10.836</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1513.8630000000001</v>
+        <v>723.58799999999997</v>
       </c>
       <c r="U39">
-        <v>109.514</v>
+        <v>35.779000000000003</v>
       </c>
       <c r="V39">
-        <v>61.44</v>
+        <v>15.975</v>
       </c>
       <c r="W39">
-        <v>-32.984000000000002</v>
+        <v>-8.0389999999999997</v>
       </c>
       <c r="X39">
-        <v>3.5659999999999998</v>
+        <v>11.653</v>
       </c>
       <c r="Y39">
-        <v>56.222000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AA39">
-        <v>73.855000000000004</v>
+        <v>31.635000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>61.344999999999999</v>
+        <v>29.984000000000002</v>
       </c>
       <c r="D40">
-        <v>410.53699999999998</v>
+        <v>227.845</v>
       </c>
       <c r="E40">
-        <v>322.55399999999997</v>
+        <v>208.45</v>
       </c>
       <c r="F40">
-        <v>155.702</v>
+        <v>95.135999999999996</v>
       </c>
       <c r="G40">
-        <v>669.101</v>
+        <v>393.10199999999998</v>
       </c>
       <c r="H40">
-        <v>2428.4740000000002</v>
+        <v>1560.56</v>
       </c>
       <c r="I40">
-        <v>9.8800000000000008</v>
+        <v>13.5</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>267.04300000000001</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>100.762</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>494.84500000000003</v>
+        <v>444.38499999999999</v>
       </c>
       <c r="O40">
-        <v>878.78599999999994</v>
+        <v>810.18799999999999</v>
       </c>
       <c r="P40">
-        <v>68.632000000000005</v>
+        <v>378.69499999999999</v>
       </c>
       <c r="Q40">
-        <v>103.831</v>
+        <v>89.739000000000004</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>6717</v>
+        <v>4528</v>
       </c>
       <c r="T40">
-        <v>1549.6880000000001</v>
+        <v>750.37199999999996</v>
       </c>
       <c r="U40">
-        <v>213.345</v>
+        <v>125.518</v>
       </c>
       <c r="V40">
-        <v>234.07900000000001</v>
+        <v>126.867</v>
       </c>
       <c r="W40">
-        <v>-32.935000000000002</v>
+        <v>-8.109</v>
       </c>
       <c r="X40">
-        <v>-85.742000000000004</v>
+        <v>287.166</v>
       </c>
       <c r="Y40">
-        <v>56.805</v>
+        <v>5.6890000000000001</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>61.344999999999999</v>
+        <v>29.984000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>91.215999999999994</v>
+        <v>31.771000000000001</v>
       </c>
       <c r="D41">
-        <v>451.8</v>
+        <v>234.822</v>
       </c>
       <c r="E41">
-        <v>244.149</v>
+        <v>133.499</v>
       </c>
       <c r="F41">
-        <v>188.87100000000001</v>
+        <v>97.033000000000001</v>
       </c>
       <c r="G41">
-        <v>574.53899999999999</v>
+        <v>248.75399999999999</v>
       </c>
       <c r="H41">
-        <v>2335.076</v>
+        <v>1415.5050000000001</v>
       </c>
       <c r="I41">
-        <v>6.835</v>
+        <v>8.6329999999999991</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>235.422</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-2.8000000000000001E-2</v>
+        <v>-132.28899999999999</v>
       </c>
       <c r="N41">
-        <v>407.37700000000001</v>
+        <v>305.04000000000002</v>
       </c>
       <c r="O41">
-        <v>791.32600000000002</v>
+        <v>638.34100000000001</v>
       </c>
       <c r="P41">
-        <v>70.207999999999998</v>
+        <v>246.465</v>
       </c>
       <c r="Q41">
-        <v>-18.024999999999999</v>
+        <v>-78.751999999999995</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1543.75</v>
+        <v>777.16399999999999</v>
       </c>
       <c r="U41">
-        <v>195.32</v>
+        <v>46.765999999999998</v>
       </c>
       <c r="V41">
-        <v>114.477</v>
+        <v>75.363</v>
       </c>
       <c r="W41">
-        <v>-32.814999999999998</v>
+        <v>-8.1210000000000004</v>
       </c>
       <c r="X41">
-        <v>-101.31399999999999</v>
+        <v>-137.934</v>
       </c>
       <c r="Y41">
-        <v>57.07</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AA41">
-        <v>91.215999999999994</v>
+        <v>31.771000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>36.045000000000002</v>
+      </c>
+      <c r="D42">
+        <v>242.63499999999999</v>
+      </c>
+      <c r="E42">
+        <v>126.827</v>
+      </c>
+      <c r="F42">
+        <v>102.819</v>
+      </c>
+      <c r="G42">
+        <v>239.06299999999999</v>
+      </c>
+      <c r="H42">
+        <v>1397.646</v>
+      </c>
+      <c r="I42">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="J42">
+        <v>229.43899999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>249.25800000000001</v>
+      </c>
+      <c r="O42">
+        <v>578.49900000000002</v>
+      </c>
+      <c r="P42">
+        <v>244.93199999999999</v>
+      </c>
+      <c r="Q42">
+        <v>0.105</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>819.14700000000005</v>
+      </c>
+      <c r="U42">
+        <v>46.871000000000002</v>
+      </c>
+      <c r="V42">
+        <v>10.465999999999999</v>
+      </c>
+      <c r="W42">
+        <v>-8.1449999999999996</v>
+      </c>
+      <c r="X42">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0.45</v>
+      </c>
+      <c r="Z42">
+        <v>-1E-3</v>
+      </c>
+      <c r="AA42">
+        <v>36.045000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>33.081000000000003</v>
+      </c>
+      <c r="D43">
+        <v>240.185</v>
+      </c>
+      <c r="E43">
+        <v>115.529</v>
+      </c>
+      <c r="F43">
+        <v>95.29</v>
+      </c>
+      <c r="G43">
+        <v>231.75399999999999</v>
+      </c>
+      <c r="H43">
+        <v>1384.7860000000001</v>
+      </c>
+      <c r="I43">
+        <v>8.7539999999999996</v>
+      </c>
+      <c r="J43">
+        <v>223.7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>207.15199999999999</v>
+      </c>
+      <c r="O43">
+        <v>535.26400000000001</v>
+      </c>
+      <c r="P43">
+        <v>244.68899999999999</v>
+      </c>
+      <c r="Q43">
+        <v>7.5119999999999996</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>849.52200000000005</v>
+      </c>
+      <c r="U43">
+        <v>54.383000000000003</v>
+      </c>
+      <c r="V43">
+        <v>29.329000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-9.0579999999999998</v>
+      </c>
+      <c r="X43">
+        <v>-5.9080000000000004</v>
+      </c>
+      <c r="Y43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>1E-3</v>
+      </c>
+      <c r="AA43">
+        <v>33.081000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>36.573999999999998</v>
+      </c>
+      <c r="D44">
+        <v>249.255</v>
+      </c>
+      <c r="E44">
+        <v>207.51</v>
+      </c>
+      <c r="F44">
+        <v>104.19199999999999</v>
+      </c>
+      <c r="G44">
+        <v>353.95</v>
+      </c>
+      <c r="H44">
+        <v>1505.797</v>
+      </c>
+      <c r="I44">
+        <v>12.829000000000001</v>
+      </c>
+      <c r="J44">
+        <v>127.93899999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>380.51100000000002</v>
+      </c>
+      <c r="O44">
+        <v>626.02099999999996</v>
+      </c>
+      <c r="P44">
+        <v>154.03100000000001</v>
+      </c>
+      <c r="Q44">
+        <v>8.7420000000000009</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>4667</v>
+      </c>
+      <c r="T44">
+        <v>879.77599999999995</v>
+      </c>
+      <c r="U44">
+        <v>63.125</v>
+      </c>
+      <c r="V44">
+        <v>124.974</v>
+      </c>
+      <c r="W44">
+        <v>-9.0670000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-100.688</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>36.573999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>36.475000000000001</v>
+      </c>
+      <c r="D45">
+        <v>248.33799999999999</v>
+      </c>
+      <c r="E45">
+        <v>134.648</v>
+      </c>
+      <c r="F45">
+        <v>104.426</v>
+      </c>
+      <c r="G45">
+        <v>322.97399999999999</v>
+      </c>
+      <c r="H45">
+        <v>1481.778</v>
+      </c>
+      <c r="I45">
+        <v>10.316000000000001</v>
+      </c>
+      <c r="J45">
+        <v>122.176</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-6.34</v>
+      </c>
+      <c r="N45">
+        <v>327.79899999999998</v>
+      </c>
+      <c r="O45">
+        <v>572.61500000000001</v>
+      </c>
+      <c r="P45">
+        <v>157.309</v>
+      </c>
+      <c r="Q45">
+        <v>44.93</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>909.16300000000001</v>
+      </c>
+      <c r="U45">
+        <v>108.05500000000001</v>
+      </c>
+      <c r="V45">
+        <v>78.462999999999994</v>
+      </c>
+      <c r="W45">
+        <v>-9.0739999999999998</v>
+      </c>
+      <c r="X45">
+        <v>-14.695</v>
+      </c>
+      <c r="Y45">
+        <v>1.972</v>
+      </c>
+      <c r="Z45">
+        <v>1E-3</v>
+      </c>
+      <c r="AA45">
+        <v>36.475000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>38.524000000000001</v>
+      </c>
+      <c r="D46">
+        <v>255.858</v>
+      </c>
+      <c r="E46">
+        <v>126.6</v>
+      </c>
+      <c r="F46">
+        <v>107.40900000000001</v>
+      </c>
+      <c r="G46">
+        <v>308.77300000000002</v>
+      </c>
+      <c r="H46">
+        <v>1463.6020000000001</v>
+      </c>
+      <c r="I46">
+        <v>7.5270000000000001</v>
+      </c>
+      <c r="J46">
+        <v>113.5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>277.36099999999999</v>
+      </c>
+      <c r="O46">
+        <v>519.15499999999997</v>
+      </c>
+      <c r="P46">
+        <v>147.02099999999999</v>
+      </c>
+      <c r="Q46">
+        <v>-12.853</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>944.447</v>
+      </c>
+      <c r="U46">
+        <v>95.201999999999998</v>
+      </c>
+      <c r="V46">
+        <v>17.797999999999998</v>
+      </c>
+      <c r="W46">
+        <v>-9.093</v>
+      </c>
+      <c r="X46">
+        <v>-16.852</v>
+      </c>
+      <c r="Y46">
+        <v>4.6070000000000002</v>
+      </c>
+      <c r="Z46">
+        <v>-1E-3</v>
+      </c>
+      <c r="AA46">
+        <v>38.524999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>36.658000000000001</v>
+      </c>
+      <c r="D47">
+        <v>256.30399999999997</v>
+      </c>
+      <c r="E47">
+        <v>118.371</v>
+      </c>
+      <c r="F47">
+        <v>103.383</v>
+      </c>
+      <c r="G47">
+        <v>292.96300000000002</v>
+      </c>
+      <c r="H47">
+        <v>1444.0350000000001</v>
+      </c>
+      <c r="I47">
+        <v>10.236000000000001</v>
+      </c>
+      <c r="J47">
+        <v>110.697</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>221.70699999999999</v>
+      </c>
+      <c r="O47">
+        <v>465.24400000000003</v>
+      </c>
+      <c r="P47">
+        <v>141.05000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-5.431</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>978.79100000000005</v>
+      </c>
+      <c r="U47">
+        <v>89.771000000000001</v>
+      </c>
+      <c r="V47">
+        <v>21.756</v>
+      </c>
+      <c r="W47">
+        <v>-9.9969999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-10.465999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>1.786</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>36.656999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>43.326999999999998</v>
+      </c>
+      <c r="D48">
+        <v>266.60899999999998</v>
+      </c>
+      <c r="E48">
+        <v>218.30500000000001</v>
+      </c>
+      <c r="F48">
+        <v>108.511</v>
+      </c>
+      <c r="G48">
+        <v>468.649</v>
+      </c>
+      <c r="H48">
+        <v>1619.492</v>
+      </c>
+      <c r="I48">
+        <v>16.317</v>
+      </c>
+      <c r="J48">
+        <v>106.166</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>402.24299999999999</v>
+      </c>
+      <c r="O48">
+        <v>636.43600000000004</v>
+      </c>
+      <c r="P48">
+        <v>131.66900000000001</v>
+      </c>
+      <c r="Q48">
+        <v>67.542000000000002</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>4872</v>
+      </c>
+      <c r="T48">
+        <v>983.05600000000004</v>
+      </c>
+      <c r="U48">
+        <v>157.31299999999999</v>
+      </c>
+      <c r="V48">
+        <v>146.53299999999999</v>
+      </c>
+      <c r="W48">
+        <v>-9.9640000000000004</v>
+      </c>
+      <c r="X48">
+        <v>-52.087000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>43.326999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>42.475000000000001</v>
+      </c>
+      <c r="D49">
+        <v>271.00099999999998</v>
+      </c>
+      <c r="E49">
+        <v>136.827</v>
+      </c>
+      <c r="F49">
+        <v>115.928</v>
+      </c>
+      <c r="G49">
+        <v>450.72899999999998</v>
+      </c>
+      <c r="H49">
+        <v>1602.684</v>
+      </c>
+      <c r="I49">
+        <v>10.518000000000001</v>
+      </c>
+      <c r="J49">
+        <v>99.49</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-5.726</v>
+      </c>
+      <c r="N49">
+        <v>355.37099999999998</v>
+      </c>
+      <c r="O49">
+        <v>586.66899999999998</v>
+      </c>
+      <c r="P49">
+        <v>132.70500000000001</v>
+      </c>
+      <c r="Q49">
+        <v>66.375</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1016.015</v>
+      </c>
+      <c r="U49">
+        <v>223.68799999999999</v>
+      </c>
+      <c r="V49">
+        <v>101.849</v>
+      </c>
+      <c r="W49">
+        <v>-9.9109999999999996</v>
+      </c>
+      <c r="X49">
+        <v>-16.978999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>42.475000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>40.506</v>
+      </c>
+      <c r="D50">
+        <v>278.69400000000002</v>
+      </c>
+      <c r="E50">
+        <v>129.46199999999999</v>
+      </c>
+      <c r="F50">
+        <v>122.23699999999999</v>
+      </c>
+      <c r="G50">
+        <v>408.93599999999998</v>
+      </c>
+      <c r="H50">
+        <v>1569.508</v>
+      </c>
+      <c r="I50">
+        <v>11.606999999999999</v>
+      </c>
+      <c r="J50">
+        <v>93.81</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>299.75599999999997</v>
+      </c>
+      <c r="O50">
+        <v>522.94500000000005</v>
+      </c>
+      <c r="P50">
+        <v>129.303</v>
+      </c>
+      <c r="Q50">
+        <v>-30.834</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1046.5630000000001</v>
+      </c>
+      <c r="U50">
+        <v>192.85400000000001</v>
+      </c>
+      <c r="V50">
+        <v>17.318999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-9.9019999999999992</v>
+      </c>
+      <c r="X50">
+        <v>-23.943999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>5.117</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>40.505000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>45.994999999999997</v>
+      </c>
+      <c r="D51">
+        <v>281.54300000000001</v>
+      </c>
+      <c r="E51">
+        <v>126.82</v>
+      </c>
+      <c r="F51">
+        <v>114.59</v>
+      </c>
+      <c r="G51">
+        <v>392.76400000000001</v>
+      </c>
+      <c r="H51">
+        <v>1563.441</v>
+      </c>
+      <c r="I51">
+        <v>11.331</v>
+      </c>
+      <c r="J51">
+        <v>88.125</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>260.791</v>
+      </c>
+      <c r="O51">
+        <v>483.601</v>
+      </c>
+      <c r="P51">
+        <v>132.636</v>
+      </c>
+      <c r="Q51">
+        <v>-10.803000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1079.8399999999999</v>
+      </c>
+      <c r="U51">
+        <v>182.05099999999999</v>
+      </c>
+      <c r="V51">
+        <v>33.256999999999998</v>
+      </c>
+      <c r="W51">
+        <v>-11.186999999999999</v>
+      </c>
+      <c r="X51">
+        <v>-20.733000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>6.93</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>45.996000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>47.668999999999997</v>
+      </c>
+      <c r="D52">
+        <v>298.14800000000002</v>
+      </c>
+      <c r="E52">
+        <v>231.26300000000001</v>
+      </c>
+      <c r="F52">
+        <v>124.23699999999999</v>
+      </c>
+      <c r="G52">
+        <v>447.88499999999999</v>
+      </c>
+      <c r="H52">
+        <v>1629.155</v>
+      </c>
+      <c r="I52">
+        <v>11.701000000000001</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>412.25799999999998</v>
+      </c>
+      <c r="O52">
+        <v>556.98599999999999</v>
+      </c>
+      <c r="P52">
+        <v>15.295</v>
+      </c>
+      <c r="Q52">
+        <v>-54.146000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>5139</v>
+      </c>
+      <c r="T52">
+        <v>1072.1690000000001</v>
+      </c>
+      <c r="U52">
+        <v>127.905</v>
+      </c>
+      <c r="V52">
+        <v>156.749</v>
+      </c>
+      <c r="W52">
+        <v>-17.202000000000002</v>
+      </c>
+      <c r="X52">
+        <v>-179.68199999999999</v>
+      </c>
+      <c r="Y52">
+        <v>7.3659999999999997</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>47.668999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>43.220999999999997</v>
+      </c>
+      <c r="D53">
+        <v>277.73</v>
+      </c>
+      <c r="E53">
+        <v>152.624</v>
+      </c>
+      <c r="F53">
+        <v>117.289</v>
+      </c>
+      <c r="G53">
+        <v>430.459</v>
+      </c>
+      <c r="H53">
+        <v>1615.1420000000001</v>
+      </c>
+      <c r="I53">
+        <v>13.914</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-2.798</v>
+      </c>
+      <c r="N53">
+        <v>365.24299999999999</v>
+      </c>
+      <c r="O53">
+        <v>510.36099999999999</v>
+      </c>
+      <c r="P53">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="Q53">
+        <v>53.881999999999998</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1104.7809999999999</v>
+      </c>
+      <c r="U53">
+        <v>181.78700000000001</v>
+      </c>
+      <c r="V53">
+        <v>97.69</v>
+      </c>
+      <c r="W53">
+        <v>-17.053999999999998</v>
+      </c>
+      <c r="X53">
+        <v>-21.9</v>
+      </c>
+      <c r="Y53">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>43.220999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>48.362000000000002</v>
+      </c>
+      <c r="D54">
+        <v>288.84399999999999</v>
+      </c>
+      <c r="E54">
+        <v>136.369</v>
+      </c>
+      <c r="F54">
+        <v>123.02</v>
+      </c>
+      <c r="G54">
+        <v>382.71100000000001</v>
+      </c>
+      <c r="H54">
+        <v>1582.144</v>
+      </c>
+      <c r="I54">
+        <v>10.731</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>289.54599999999999</v>
+      </c>
+      <c r="O54">
+        <v>436.697</v>
+      </c>
+      <c r="P54">
+        <v>9.6780000000000008</v>
+      </c>
+      <c r="Q54">
+        <v>-26.286000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1145.4469999999999</v>
+      </c>
+      <c r="U54">
+        <v>155.501</v>
+      </c>
+      <c r="V54">
+        <v>33.625999999999998</v>
+      </c>
+      <c r="W54">
+        <v>-17.091999999999999</v>
+      </c>
+      <c r="X54">
+        <v>-26.768000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>5.6890000000000001</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>48.360999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>42.604999999999997</v>
+      </c>
+      <c r="D55">
+        <v>291.43400000000003</v>
+      </c>
+      <c r="E55">
+        <v>140.01</v>
+      </c>
+      <c r="F55">
+        <v>117.375</v>
+      </c>
+      <c r="G55">
+        <v>278.98500000000001</v>
+      </c>
+      <c r="H55">
+        <v>1514.472</v>
+      </c>
+      <c r="I55">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.01</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>254.44800000000001</v>
+      </c>
+      <c r="O55">
+        <v>399.93200000000002</v>
+      </c>
+      <c r="P55">
+        <v>15.454000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-103.25700000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1114.54</v>
+      </c>
+      <c r="U55">
+        <v>52.244</v>
+      </c>
+      <c r="V55">
+        <v>30.120999999999999</v>
+      </c>
+      <c r="W55">
+        <v>-18.623999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-82.355000000000004</v>
+      </c>
+      <c r="Y55">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>42.606000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>52.527000000000001</v>
+      </c>
+      <c r="D56">
+        <v>315.166</v>
+      </c>
+      <c r="E56">
+        <v>224.041</v>
+      </c>
+      <c r="F56">
+        <v>136.119</v>
+      </c>
+      <c r="G56">
+        <v>390.50599999999997</v>
+      </c>
+      <c r="H56">
+        <v>1680.703</v>
+      </c>
+      <c r="I56">
+        <v>10.516</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>446.80900000000003</v>
+      </c>
+      <c r="O56">
+        <v>713.31600000000003</v>
+      </c>
+      <c r="P56">
+        <v>9.1359999999999992</v>
+      </c>
+      <c r="Q56">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>5499</v>
+      </c>
+      <c r="T56">
+        <v>967.38699999999994</v>
+      </c>
+      <c r="U56">
+        <v>70.376999999999995</v>
+      </c>
+      <c r="V56">
+        <v>180.22200000000001</v>
+      </c>
+      <c r="W56">
+        <v>-18.481000000000002</v>
+      </c>
+      <c r="X56">
+        <v>-136.38399999999999</v>
+      </c>
+      <c r="Y56">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>52.527000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>46.088000000000001</v>
+      </c>
+      <c r="D57">
+        <v>301.47399999999999</v>
+      </c>
+      <c r="E57">
+        <v>159.11000000000001</v>
+      </c>
+      <c r="F57">
+        <v>126.59</v>
+      </c>
+      <c r="G57">
+        <v>310.32299999999998</v>
+      </c>
+      <c r="H57">
+        <v>1620.797</v>
+      </c>
+      <c r="I57">
+        <v>8.3160000000000007</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-0.17</v>
+      </c>
+      <c r="N57">
+        <v>404.72399999999999</v>
+      </c>
+      <c r="O57">
+        <v>686.32600000000002</v>
+      </c>
+      <c r="P57">
+        <v>11.005000000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-30.975000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>934.471</v>
+      </c>
+      <c r="U57">
+        <v>39.402000000000001</v>
+      </c>
+      <c r="V57">
+        <v>93.147999999999996</v>
+      </c>
+      <c r="W57">
+        <v>-18.042000000000002</v>
+      </c>
+      <c r="X57">
+        <v>-81.242000000000004</v>
+      </c>
+      <c r="Y57">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>46.088000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>53.881</v>
+      </c>
+      <c r="D58">
+        <v>311.29399999999998</v>
+      </c>
+      <c r="E58">
+        <v>147.88999999999999</v>
+      </c>
+      <c r="F58">
+        <v>131.035</v>
+      </c>
+      <c r="G58">
+        <v>306.78100000000001</v>
+      </c>
+      <c r="H58">
+        <v>1620.971</v>
+      </c>
+      <c r="I58">
+        <v>7.8890000000000002</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>70</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>405.25900000000001</v>
+      </c>
+      <c r="O58">
+        <v>698.90899999999999</v>
+      </c>
+      <c r="P58">
+        <v>78.811000000000007</v>
+      </c>
+      <c r="Q58">
+        <v>9.93</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>922.06200000000001</v>
+      </c>
+      <c r="U58">
+        <v>49.332000000000001</v>
+      </c>
+      <c r="V58">
+        <v>33.75</v>
+      </c>
+      <c r="W58">
+        <v>-17.919</v>
+      </c>
+      <c r="X58">
+        <v>-3.302</v>
+      </c>
+      <c r="Y58">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>53.881999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>50.71</v>
+      </c>
+      <c r="D59">
+        <v>309.709</v>
+      </c>
+      <c r="E59">
+        <v>137.41499999999999</v>
+      </c>
+      <c r="F59">
+        <v>131.815</v>
+      </c>
+      <c r="G59">
+        <v>294.53199999999998</v>
+      </c>
+      <c r="H59">
+        <v>1618.1389999999999</v>
+      </c>
+      <c r="I59">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="J59">
+        <v>70</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>287.60500000000002</v>
+      </c>
+      <c r="O59">
+        <v>661.529</v>
+      </c>
+      <c r="P59">
+        <v>77.447000000000003</v>
+      </c>
+      <c r="Q59">
+        <v>3.468</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>956.61</v>
+      </c>
+      <c r="U59">
+        <v>52.8</v>
+      </c>
+      <c r="V59">
+        <v>55.588999999999999</v>
+      </c>
+      <c r="W59">
+        <v>-20.222000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-21.187999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0.2</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>50.712000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>60.542000000000002</v>
+      </c>
+      <c r="D60">
+        <v>333.71300000000002</v>
+      </c>
+      <c r="E60">
+        <v>245.387</v>
+      </c>
+      <c r="F60">
+        <v>146.41499999999999</v>
+      </c>
+      <c r="G60">
+        <v>493.49900000000002</v>
+      </c>
+      <c r="H60">
+        <v>1836.835</v>
+      </c>
+      <c r="I60">
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>443.61099999999999</v>
+      </c>
+      <c r="O60">
+        <v>845.30100000000004</v>
+      </c>
+      <c r="P60">
+        <v>52.697000000000003</v>
+      </c>
+      <c r="Q60">
+        <v>95.513000000000005</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>5822</v>
+      </c>
+      <c r="T60">
+        <v>991.53399999999999</v>
+      </c>
+      <c r="U60">
+        <v>148.31299999999999</v>
+      </c>
+      <c r="V60">
+        <v>191.303</v>
+      </c>
+      <c r="W60">
+        <v>-20.227</v>
+      </c>
+      <c r="X60">
+        <v>-53.137999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>60.542000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>51.366</v>
+      </c>
+      <c r="D61">
+        <v>321.61799999999999</v>
+      </c>
+      <c r="E61">
+        <v>147.65199999999999</v>
+      </c>
+      <c r="F61">
+        <v>137.95500000000001</v>
+      </c>
+      <c r="G61">
+        <v>345.42500000000001</v>
+      </c>
+      <c r="H61">
+        <v>1714.1969999999999</v>
+      </c>
+      <c r="I61">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-51.59</v>
+      </c>
+      <c r="N61">
+        <v>397.226</v>
+      </c>
+      <c r="O61">
+        <v>759.91300000000001</v>
+      </c>
+      <c r="P61">
+        <v>1.107</v>
+      </c>
+      <c r="Q61">
+        <v>-63.828000000000003</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>954.28399999999999</v>
+      </c>
+      <c r="U61">
+        <v>84.484999999999999</v>
+      </c>
+      <c r="V61">
+        <v>126.81</v>
+      </c>
+      <c r="W61">
+        <v>-20.2</v>
+      </c>
+      <c r="X61">
+        <v>-142.07599999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>51.366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>59.347999999999999</v>
+      </c>
+      <c r="D62">
+        <v>332.87200000000001</v>
+      </c>
+      <c r="E62">
+        <v>147.09100000000001</v>
+      </c>
+      <c r="F62">
+        <v>142.42699999999999</v>
+      </c>
+      <c r="G62">
+        <v>320.017</v>
+      </c>
+      <c r="H62">
+        <v>1708.865</v>
+      </c>
+      <c r="I62">
+        <v>5.6529999999999996</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>333.75099999999998</v>
+      </c>
+      <c r="O62">
+        <v>796.39099999999996</v>
+      </c>
+      <c r="P62">
+        <v>100.32299999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-29.359000000000002</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>912.47400000000005</v>
+      </c>
+      <c r="U62">
+        <v>55.125999999999998</v>
+      </c>
+      <c r="V62">
+        <v>20.47</v>
+      </c>
+      <c r="W62">
+        <v>-19.771999999999998</v>
+      </c>
+      <c r="X62">
+        <v>-5.2709999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>59.347999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>53.883000000000003</v>
+      </c>
+      <c r="D63">
+        <v>333.18599999999998</v>
+      </c>
+      <c r="E63">
+        <v>137.40600000000001</v>
+      </c>
+      <c r="F63">
+        <v>138.91300000000001</v>
+      </c>
+      <c r="G63">
+        <v>309.97000000000003</v>
+      </c>
+      <c r="H63">
+        <v>1702.6220000000001</v>
+      </c>
+      <c r="I63">
+        <v>7.06</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>279.26400000000001</v>
+      </c>
+      <c r="O63">
+        <v>753.755</v>
+      </c>
+      <c r="P63">
+        <v>100.21299999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-1.125</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>948.86699999999996</v>
+      </c>
+      <c r="U63">
+        <v>54.000999999999998</v>
+      </c>
+      <c r="V63">
+        <v>60.091000000000001</v>
+      </c>
+      <c r="W63">
+        <v>-22.065000000000001</v>
+      </c>
+      <c r="X63">
+        <v>-20.739000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>53.883000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>84.27</v>
+      </c>
+      <c r="D64">
+        <v>366.96899999999999</v>
+      </c>
+      <c r="E64">
+        <v>253.923</v>
+      </c>
+      <c r="F64">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="G64">
+        <v>431.92899999999997</v>
+      </c>
+      <c r="H64">
+        <v>1815.5119999999999</v>
+      </c>
+      <c r="I64">
+        <v>14.596</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>443.73200000000003</v>
+      </c>
+      <c r="O64">
+        <v>819.30200000000002</v>
+      </c>
+      <c r="P64">
+        <v>0.2</v>
+      </c>
+      <c r="Q64">
+        <v>16.309000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>5861</v>
+      </c>
+      <c r="T64">
+        <v>996.21</v>
+      </c>
+      <c r="U64">
+        <v>70.31</v>
+      </c>
+      <c r="V64">
+        <v>159.05099999999999</v>
+      </c>
+      <c r="W64">
+        <v>-22.081</v>
+      </c>
+      <c r="X64">
+        <v>-140.376</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>84.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>62.244</v>
+      </c>
+      <c r="D65">
+        <v>345.02800000000002</v>
+      </c>
+      <c r="E65">
+        <v>148.428</v>
+      </c>
+      <c r="F65">
+        <v>150.26499999999999</v>
+      </c>
+      <c r="G65">
+        <v>342.9</v>
+      </c>
+      <c r="H65">
+        <v>1732.252</v>
+      </c>
+      <c r="I65">
+        <v>7.0919999999999996</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-0.2</v>
+      </c>
+      <c r="N65">
+        <v>379.37099999999998</v>
+      </c>
+      <c r="O65">
+        <v>759.66300000000001</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>14.209</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>972.58900000000006</v>
+      </c>
+      <c r="U65">
+        <v>84.519000000000005</v>
+      </c>
+      <c r="V65">
+        <v>133.37100000000001</v>
+      </c>
+      <c r="W65">
+        <v>-21.856999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-87.260999999999996</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>62.244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>58.814</v>
+      </c>
+      <c r="D66">
+        <v>348.553</v>
+      </c>
+      <c r="E66">
+        <v>146.256</v>
+      </c>
+      <c r="F66">
+        <v>150.40700000000001</v>
+      </c>
+      <c r="G66">
+        <v>323.73700000000002</v>
+      </c>
+      <c r="H66">
+        <v>1718.095</v>
+      </c>
+      <c r="I66">
+        <v>15.863</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>328.58800000000002</v>
+      </c>
+      <c r="O66">
+        <v>746.68299999999999</v>
+      </c>
+      <c r="P66">
+        <v>50</v>
+      </c>
+      <c r="Q66">
+        <v>-20.331</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>971.41200000000003</v>
+      </c>
+      <c r="U66">
+        <v>64.188000000000002</v>
+      </c>
+      <c r="V66">
+        <v>30.495999999999999</v>
+      </c>
+      <c r="W66">
+        <v>-21.725000000000001</v>
+      </c>
+      <c r="X66">
+        <v>-13.025</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>58.814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>60.043999999999997</v>
+      </c>
+      <c r="D67">
+        <v>353.767</v>
+      </c>
+      <c r="E67">
+        <v>139.50299999999999</v>
+      </c>
+      <c r="F67">
+        <v>147.04</v>
+      </c>
+      <c r="G67">
+        <v>299.154</v>
+      </c>
+      <c r="H67">
+        <v>1686.9829999999999</v>
+      </c>
+      <c r="I67">
+        <v>5.2549999999999999</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>269.87599999999998</v>
+      </c>
+      <c r="O67">
+        <v>674.87099999999998</v>
+      </c>
+      <c r="P67">
+        <v>50</v>
+      </c>
+      <c r="Q67">
+        <v>-21.271999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1012.112</v>
+      </c>
+      <c r="U67">
+        <v>42.915999999999997</v>
+      </c>
+      <c r="V67">
+        <v>35</v>
+      </c>
+      <c r="W67">
+        <v>-24.059000000000001</v>
+      </c>
+      <c r="X67">
+        <v>-22.475999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>60.043999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>64.691000000000003</v>
+      </c>
+      <c r="D68">
+        <v>383.76799999999997</v>
+      </c>
+      <c r="E68">
+        <v>276.923</v>
+      </c>
+      <c r="F68">
+        <v>167.64500000000001</v>
+      </c>
+      <c r="G68">
+        <v>520.03099999999995</v>
+      </c>
+      <c r="H68">
+        <v>1908.9449999999999</v>
+      </c>
+      <c r="I68">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>471.19200000000001</v>
+      </c>
+      <c r="O68">
+        <v>876.89400000000001</v>
+      </c>
+      <c r="P68">
+        <v>50</v>
+      </c>
+      <c r="Q68">
+        <v>71.849000000000004</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>5972</v>
+      </c>
+      <c r="T68">
+        <v>1032.0509999999999</v>
+      </c>
+      <c r="U68">
+        <v>114.765</v>
+      </c>
+      <c r="V68">
+        <v>158.45500000000001</v>
+      </c>
+      <c r="W68">
+        <v>-24.065999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-48.518999999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>64.691000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>66.87</v>
+      </c>
+      <c r="D69">
+        <v>361.28399999999999</v>
+      </c>
+      <c r="E69">
+        <v>172.51499999999999</v>
+      </c>
+      <c r="F69">
+        <v>157.369</v>
+      </c>
+      <c r="G69">
+        <v>403.87099999999998</v>
+      </c>
+      <c r="H69">
+        <v>1796.345</v>
+      </c>
+      <c r="I69">
+        <v>8.8569999999999993</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-50</v>
+      </c>
+      <c r="N69">
+        <v>414.74</v>
+      </c>
+      <c r="O69">
+        <v>758.53200000000004</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>-10.725</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1037.8130000000001</v>
+      </c>
+      <c r="U69">
+        <v>104.04</v>
+      </c>
+      <c r="V69">
+        <v>138.72200000000001</v>
+      </c>
+      <c r="W69">
+        <v>-23.904</v>
+      </c>
+      <c r="X69">
+        <v>-109.16200000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>161.24299999999999</v>
+      </c>
+      <c r="D70">
+        <v>357.209</v>
+      </c>
+      <c r="E70">
+        <v>166.827</v>
+      </c>
+      <c r="F70">
+        <v>150.10900000000001</v>
+      </c>
+      <c r="G70">
+        <v>369.6</v>
+      </c>
+      <c r="H70">
+        <v>1917.076</v>
+      </c>
+      <c r="I70">
+        <v>13.135</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>353.75400000000002</v>
+      </c>
+      <c r="O70">
+        <v>743.07600000000002</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
+      </c>
+      <c r="Q70">
+        <v>-46.320999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1174</v>
+      </c>
+      <c r="U70">
+        <v>57.719000000000001</v>
+      </c>
+      <c r="V70">
+        <v>38.186</v>
+      </c>
+      <c r="W70">
+        <v>-23.94</v>
+      </c>
+      <c r="X70">
+        <v>77.516999999999996</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>161.24299999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>69.085999999999999</v>
+      </c>
+      <c r="D71">
+        <v>374.048</v>
+      </c>
+      <c r="E71">
+        <v>168.934</v>
+      </c>
+      <c r="F71">
+        <v>155.53100000000001</v>
+      </c>
+      <c r="G71">
+        <v>362.03</v>
+      </c>
+      <c r="H71">
+        <v>1905.3679999999999</v>
+      </c>
+      <c r="I71">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="J71">
+        <v>105</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>289.238</v>
+      </c>
+      <c r="O71">
+        <v>682.28300000000002</v>
+      </c>
+      <c r="P71">
+        <v>105</v>
+      </c>
+      <c r="Q71">
+        <v>-0.317</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1223.085</v>
+      </c>
+      <c r="U71">
+        <v>57.402000000000001</v>
+      </c>
+      <c r="V71">
+        <v>57.963999999999999</v>
+      </c>
+      <c r="W71">
+        <v>-28.585000000000001</v>
+      </c>
+      <c r="X71">
+        <v>-21.535</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-5</v>
+      </c>
+      <c r="AA71">
+        <v>69.085999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>67.834999999999994</v>
+      </c>
+      <c r="D72">
+        <v>378.25599999999997</v>
+      </c>
+      <c r="E72">
+        <v>311.334</v>
+      </c>
+      <c r="F72">
+        <v>154.65</v>
+      </c>
+      <c r="G72">
+        <v>470.74200000000002</v>
+      </c>
+      <c r="H72">
+        <v>2033.058</v>
+      </c>
+      <c r="I72">
+        <v>30.36</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>448.05500000000001</v>
+      </c>
+      <c r="O72">
+        <v>710.21400000000006</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>-25.962</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>6307</v>
+      </c>
+      <c r="T72">
+        <v>1322.8440000000001</v>
+      </c>
+      <c r="U72">
+        <v>31.44</v>
+      </c>
+      <c r="V72">
+        <v>177.27</v>
+      </c>
+      <c r="W72">
+        <v>-28.591999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-150.46100000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>67.834999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>83.551000000000002</v>
+      </c>
+      <c r="D73">
+        <v>392.54300000000001</v>
+      </c>
+      <c r="E73">
+        <v>215.048</v>
+      </c>
+      <c r="F73">
+        <v>172.43100000000001</v>
+      </c>
+      <c r="G73">
+        <v>457.839</v>
+      </c>
+      <c r="H73">
+        <v>2033.1020000000001</v>
+      </c>
+      <c r="I73">
+        <v>10.477</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>420.226</v>
+      </c>
+      <c r="O73">
+        <v>664.53800000000001</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>83.432000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1368.5640000000001</v>
+      </c>
+      <c r="U73">
+        <v>114.872</v>
+      </c>
+      <c r="V73">
+        <v>146.73400000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-11.039</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>83.551000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>68.088999999999999</v>
+      </c>
+      <c r="D74">
+        <v>386.27499999999998</v>
+      </c>
+      <c r="E74">
+        <v>201.434</v>
+      </c>
+      <c r="F74">
+        <v>158.99100000000001</v>
+      </c>
+      <c r="G74">
+        <v>362.63900000000001</v>
+      </c>
+      <c r="H74">
+        <v>1971.777</v>
+      </c>
+      <c r="I74">
+        <v>6.5970000000000004</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>340.07400000000001</v>
+      </c>
+      <c r="O74">
+        <v>579.822</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>-88.715999999999994</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1391.9549999999999</v>
+      </c>
+      <c r="U74">
+        <v>26.155999999999999</v>
+      </c>
+      <c r="V74">
+        <v>45.31</v>
+      </c>
+      <c r="W74">
+        <v>-57.103999999999999</v>
+      </c>
+      <c r="X74">
+        <v>-76.635999999999996</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>68.088999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>59.252000000000002</v>
+      </c>
+      <c r="D75">
+        <v>380.36399999999998</v>
+      </c>
+      <c r="E75">
+        <v>209.226</v>
+      </c>
+      <c r="F75">
+        <v>144.77000000000001</v>
+      </c>
+      <c r="G75">
+        <v>388.55599999999998</v>
+      </c>
+      <c r="H75">
+        <v>2002.8789999999999</v>
+      </c>
+      <c r="I75">
+        <v>10.907</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>35</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>330.86500000000001</v>
+      </c>
+      <c r="O75">
+        <v>576.87599999999998</v>
+      </c>
+      <c r="P75">
+        <v>35</v>
+      </c>
+      <c r="Q75">
+        <v>9.2420000000000009</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1426.0029999999999</v>
+      </c>
+      <c r="U75">
+        <v>35.398000000000003</v>
+      </c>
+      <c r="V75">
+        <v>41.325000000000003</v>
+      </c>
+      <c r="W75">
+        <v>-30.866</v>
+      </c>
+      <c r="X75">
+        <v>6.2910000000000004</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>59.252000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>60.993000000000002</v>
+      </c>
+      <c r="D76">
+        <v>393.50900000000001</v>
+      </c>
+      <c r="E76">
+        <v>331.52600000000001</v>
+      </c>
+      <c r="F76">
+        <v>153.46899999999999</v>
+      </c>
+      <c r="G76">
+        <v>569.44799999999998</v>
+      </c>
+      <c r="H76">
+        <v>2184.8290000000002</v>
+      </c>
+      <c r="I76">
+        <v>9.85</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>469.96199999999999</v>
+      </c>
+      <c r="O76">
+        <v>755.81600000000003</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>58.23</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>6402</v>
+      </c>
+      <c r="T76">
+        <v>1429.0129999999999</v>
+      </c>
+      <c r="U76">
+        <v>93.628</v>
+      </c>
+      <c r="V76">
+        <v>197.75899999999999</v>
+      </c>
+      <c r="W76">
+        <v>-30.774999999999999</v>
+      </c>
+      <c r="X76">
+        <v>-96.921000000000006</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>60.993000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>89.37</v>
+      </c>
+      <c r="D77">
+        <v>438.005</v>
+      </c>
+      <c r="E77">
+        <v>255.595</v>
+      </c>
+      <c r="F77">
+        <v>192.214</v>
+      </c>
+      <c r="G77">
+        <v>484.12299999999999</v>
+      </c>
+      <c r="H77">
+        <v>2225.9780000000001</v>
+      </c>
+      <c r="I77">
+        <v>13.621</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>393.07799999999997</v>
+      </c>
+      <c r="O77">
+        <v>749.31799999999998</v>
+      </c>
+      <c r="P77">
+        <v>74.23</v>
+      </c>
+      <c r="Q77">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1476.66</v>
+      </c>
+      <c r="U77">
+        <v>96.679000000000002</v>
+      </c>
+      <c r="V77">
+        <v>123.05200000000001</v>
+      </c>
+      <c r="W77">
+        <v>-30.771000000000001</v>
+      </c>
+      <c r="X77">
+        <v>-44.576000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>62.188000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>89.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>72.097999999999999</v>
+      </c>
+      <c r="D78">
+        <v>419.11900000000003</v>
+      </c>
+      <c r="E78">
+        <v>226.57499999999999</v>
+      </c>
+      <c r="F78">
+        <v>169.852</v>
+      </c>
+      <c r="G78">
+        <v>427.73099999999999</v>
+      </c>
+      <c r="H78">
+        <v>2187.4389999999999</v>
+      </c>
+      <c r="I78">
+        <v>10.67</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>343.154</v>
+      </c>
+      <c r="O78">
+        <v>700.69299999999998</v>
+      </c>
+      <c r="P78">
+        <v>70.971000000000004</v>
+      </c>
+      <c r="Q78">
+        <v>-24.166</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>1486.7460000000001</v>
+      </c>
+      <c r="U78">
+        <v>72.513000000000005</v>
+      </c>
+      <c r="V78">
+        <v>91.960999999999999</v>
+      </c>
+      <c r="W78">
+        <v>-30.731000000000002</v>
+      </c>
+      <c r="X78">
+        <v>-66.156999999999996</v>
+      </c>
+      <c r="Y78">
+        <v>58.877000000000002</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>72.097999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>73.855000000000004</v>
+      </c>
+      <c r="D79">
+        <v>429.40600000000001</v>
+      </c>
+      <c r="E79">
+        <v>233.393</v>
+      </c>
+      <c r="F79">
+        <v>170.83500000000001</v>
+      </c>
+      <c r="G79">
+        <v>479.65</v>
+      </c>
+      <c r="H79">
+        <v>2229.4189999999999</v>
+      </c>
+      <c r="I79">
+        <v>11.673</v>
+      </c>
+      <c r="J79">
+        <v>55</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>298.40800000000002</v>
+      </c>
+      <c r="O79">
+        <v>715.55600000000004</v>
+      </c>
+      <c r="P79">
+        <v>123.021</v>
+      </c>
+      <c r="Q79">
+        <v>37.000999999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1513.8630000000001</v>
+      </c>
+      <c r="U79">
+        <v>109.514</v>
+      </c>
+      <c r="V79">
+        <v>61.44</v>
+      </c>
+      <c r="W79">
+        <v>-32.984000000000002</v>
+      </c>
+      <c r="X79">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="Y79">
+        <v>56.222000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>73.855000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>61.344999999999999</v>
+      </c>
+      <c r="D80">
+        <v>410.53699999999998</v>
+      </c>
+      <c r="E80">
+        <v>322.55399999999997</v>
+      </c>
+      <c r="F80">
+        <v>155.702</v>
+      </c>
+      <c r="G80">
+        <v>669.101</v>
+      </c>
+      <c r="H80">
+        <v>2428.4740000000002</v>
+      </c>
+      <c r="I80">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>494.84500000000003</v>
+      </c>
+      <c r="O80">
+        <v>878.78599999999994</v>
+      </c>
+      <c r="P80">
+        <v>68.632000000000005</v>
+      </c>
+      <c r="Q80">
+        <v>103.831</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>6717</v>
+      </c>
+      <c r="T80">
+        <v>1549.6880000000001</v>
+      </c>
+      <c r="U80">
+        <v>213.345</v>
+      </c>
+      <c r="V80">
+        <v>234.07900000000001</v>
+      </c>
+      <c r="W80">
+        <v>-32.935000000000002</v>
+      </c>
+      <c r="X80">
+        <v>-85.742000000000004</v>
+      </c>
+      <c r="Y80">
+        <v>56.805</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>61.344999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>91.215999999999994</v>
+      </c>
+      <c r="D81">
+        <v>451.8</v>
+      </c>
+      <c r="E81">
+        <v>244.149</v>
+      </c>
+      <c r="F81">
+        <v>188.87100000000001</v>
+      </c>
+      <c r="G81">
+        <v>574.53899999999999</v>
+      </c>
+      <c r="H81">
+        <v>2335.076</v>
+      </c>
+      <c r="I81">
+        <v>6.835</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="N81">
+        <v>407.37700000000001</v>
+      </c>
+      <c r="O81">
+        <v>791.32600000000002</v>
+      </c>
+      <c r="P81">
+        <v>70.207999999999998</v>
+      </c>
+      <c r="Q81">
+        <v>-18.024999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1543.75</v>
+      </c>
+      <c r="U81">
+        <v>195.32</v>
+      </c>
+      <c r="V81">
+        <v>114.477</v>
+      </c>
+      <c r="W81">
+        <v>-32.814999999999998</v>
+      </c>
+      <c r="X81">
+        <v>-101.31399999999999</v>
+      </c>
+      <c r="Y81">
+        <v>57.07</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>91.215999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>71.981999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>422.36099999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>232.208</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>164.57900000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>518.48400000000004</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>2286.7089999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>11.569000000000001</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>350.97300000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>741.53</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>67.031000000000006</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-47.558</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>1545.1790000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>147.762</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>79.507000000000005</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-32.701000000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-75.709000000000003</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>55.223999999999997</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-12.1</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>71.981999999999999</v>
       </c>
     </row>
